--- a/import/raw_data/e3m/e3m_parameters_RES.xlsx
+++ b/import/raw_data/e3m/e3m_parameters_RES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bef\GitHub\micat\import\raw_data\e3m\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B3CA93E-1F57-43F5-8C1A-4F29679C1CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D407C993-98CD-4054-844A-6F1DC00F4028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15264" yWindow="0" windowWidth="30912" windowHeight="16656" xr2:uid="{DF6F4C0D-5158-4E58-BB2B-72468AC9A367}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="20676" windowHeight="16656" xr2:uid="{DF6F4C0D-5158-4E58-BB2B-72468AC9A367}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -436,17 +436,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F3D36B0-48FE-4818-865A-BB28563888AA}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E973"/>
+  <dimension ref="A1:E1009"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="5" width="20.77734375" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -16990,6 +16989,618 @@
         <v>6.9163982298221935E-6</v>
       </c>
     </row>
+    <row r="974" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A974">
+        <v>0</v>
+      </c>
+      <c r="B974">
+        <v>38</v>
+      </c>
+      <c r="C974">
+        <v>30</v>
+      </c>
+      <c r="D974">
+        <v>30</v>
+      </c>
+      <c r="E974">
+        <v>0.59696403253170571</v>
+      </c>
+    </row>
+    <row r="975" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A975">
+        <v>0</v>
+      </c>
+      <c r="B975">
+        <v>38</v>
+      </c>
+      <c r="C975" s="2">
+        <v>31</v>
+      </c>
+      <c r="D975" s="2">
+        <v>32</v>
+      </c>
+      <c r="E975">
+        <v>0.58312852846857066</v>
+      </c>
+    </row>
+    <row r="976" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A976">
+        <v>0</v>
+      </c>
+      <c r="B976">
+        <v>38</v>
+      </c>
+      <c r="C976" s="2">
+        <v>31</v>
+      </c>
+      <c r="D976" s="2">
+        <v>33</v>
+      </c>
+      <c r="E976">
+        <v>0.57375527295666717</v>
+      </c>
+    </row>
+    <row r="977" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A977">
+        <v>0</v>
+      </c>
+      <c r="B977">
+        <v>38</v>
+      </c>
+      <c r="C977" s="2">
+        <v>30</v>
+      </c>
+      <c r="D977" s="2">
+        <v>31</v>
+      </c>
+      <c r="E977">
+        <v>0.59696403253170571</v>
+      </c>
+    </row>
+    <row r="978" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A978">
+        <v>0</v>
+      </c>
+      <c r="B978">
+        <v>38</v>
+      </c>
+      <c r="C978" s="2">
+        <v>37</v>
+      </c>
+      <c r="D978" s="2">
+        <v>37</v>
+      </c>
+      <c r="E978">
+        <v>0.61740641585571887</v>
+      </c>
+    </row>
+    <row r="979" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A979">
+        <v>0</v>
+      </c>
+      <c r="B979">
+        <v>38</v>
+      </c>
+      <c r="C979" s="2">
+        <v>32</v>
+      </c>
+      <c r="D979" s="2">
+        <v>35</v>
+      </c>
+      <c r="E979">
+        <v>0.72611058680424712</v>
+      </c>
+    </row>
+    <row r="980" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A980">
+        <v>0</v>
+      </c>
+      <c r="B980">
+        <v>38</v>
+      </c>
+      <c r="C980" s="2">
+        <v>32</v>
+      </c>
+      <c r="D980" s="2">
+        <v>34</v>
+      </c>
+      <c r="E980">
+        <v>0.71840270377020177</v>
+      </c>
+    </row>
+    <row r="981" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A981">
+        <v>0</v>
+      </c>
+      <c r="B981">
+        <v>38</v>
+      </c>
+      <c r="C981" s="2">
+        <v>33</v>
+      </c>
+      <c r="D981" s="2">
+        <v>36</v>
+      </c>
+      <c r="E981">
+        <v>0.61986152111544213</v>
+      </c>
+    </row>
+    <row r="982" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A982">
+        <v>0</v>
+      </c>
+      <c r="B982">
+        <v>38</v>
+      </c>
+      <c r="C982" s="2">
+        <v>33</v>
+      </c>
+      <c r="D982" s="2">
+        <v>37</v>
+      </c>
+      <c r="E982">
+        <v>0.65087449256724206</v>
+      </c>
+    </row>
+    <row r="983" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A983">
+        <v>0</v>
+      </c>
+      <c r="B983">
+        <v>38</v>
+      </c>
+      <c r="C983" s="2">
+        <v>36</v>
+      </c>
+      <c r="D983" s="2">
+        <v>37</v>
+      </c>
+      <c r="E983">
+        <v>0.60743757109210328</v>
+      </c>
+    </row>
+    <row r="984" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A984">
+        <v>0</v>
+      </c>
+      <c r="B984">
+        <v>38</v>
+      </c>
+      <c r="C984" s="2">
+        <v>34</v>
+      </c>
+      <c r="D984" s="2">
+        <v>36</v>
+      </c>
+      <c r="E984">
+        <v>0.61864318615974923</v>
+      </c>
+    </row>
+    <row r="985" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A985">
+        <v>0</v>
+      </c>
+      <c r="B985">
+        <v>38</v>
+      </c>
+      <c r="C985" s="2">
+        <v>34</v>
+      </c>
+      <c r="D985" s="2">
+        <v>37</v>
+      </c>
+      <c r="E985">
+        <v>0.62460055257983138</v>
+      </c>
+    </row>
+    <row r="986" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A986">
+        <v>0</v>
+      </c>
+      <c r="B986">
+        <v>38</v>
+      </c>
+      <c r="C986" s="2">
+        <v>33</v>
+      </c>
+      <c r="D986" s="2">
+        <v>38</v>
+      </c>
+      <c r="E986">
+        <v>0.63536800684134209</v>
+      </c>
+    </row>
+    <row r="987" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A987">
+        <v>0</v>
+      </c>
+      <c r="B987">
+        <v>38</v>
+      </c>
+      <c r="C987" s="2">
+        <v>34</v>
+      </c>
+      <c r="D987" s="2">
+        <v>38</v>
+      </c>
+      <c r="E987">
+        <v>0.62162186936979025</v>
+      </c>
+    </row>
+    <row r="988" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A988">
+        <v>0</v>
+      </c>
+      <c r="B988">
+        <v>38</v>
+      </c>
+      <c r="C988" s="2">
+        <v>35</v>
+      </c>
+      <c r="D988" s="2">
+        <v>36</v>
+      </c>
+      <c r="E988">
+        <v>0.65141763733972502</v>
+      </c>
+    </row>
+    <row r="989" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A989">
+        <v>0</v>
+      </c>
+      <c r="B989">
+        <v>38</v>
+      </c>
+      <c r="C989" s="2">
+        <v>35</v>
+      </c>
+      <c r="D989" s="2">
+        <v>37</v>
+      </c>
+      <c r="E989">
+        <v>0.65352023725269504</v>
+      </c>
+    </row>
+    <row r="990" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A990">
+        <v>0</v>
+      </c>
+      <c r="B990">
+        <v>38</v>
+      </c>
+      <c r="C990" s="2">
+        <v>35</v>
+      </c>
+      <c r="D990" s="2">
+        <v>38</v>
+      </c>
+      <c r="E990">
+        <v>0.65246893729621014</v>
+      </c>
+    </row>
+    <row r="991" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A991">
+        <v>0</v>
+      </c>
+      <c r="B991">
+        <v>38</v>
+      </c>
+      <c r="C991" s="2">
+        <v>38</v>
+      </c>
+      <c r="D991" s="2">
+        <v>37</v>
+      </c>
+      <c r="E991">
+        <v>0.62888704569058984</v>
+      </c>
+    </row>
+    <row r="992" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A992">
+        <v>0</v>
+      </c>
+      <c r="B992">
+        <v>39</v>
+      </c>
+      <c r="C992">
+        <v>30</v>
+      </c>
+      <c r="D992">
+        <v>30</v>
+      </c>
+      <c r="E992">
+        <v>1.4033229859418264E-5</v>
+      </c>
+    </row>
+    <row r="993" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A993">
+        <v>0</v>
+      </c>
+      <c r="B993">
+        <v>39</v>
+      </c>
+      <c r="C993" s="2">
+        <v>31</v>
+      </c>
+      <c r="D993" s="2">
+        <v>32</v>
+      </c>
+      <c r="E993">
+        <v>1.1436628210190972E-5</v>
+      </c>
+    </row>
+    <row r="994" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A994">
+        <v>0</v>
+      </c>
+      <c r="B994">
+        <v>39</v>
+      </c>
+      <c r="C994" s="2">
+        <v>31</v>
+      </c>
+      <c r="D994" s="2">
+        <v>33</v>
+      </c>
+      <c r="E994">
+        <v>1.1097884246893511E-5</v>
+      </c>
+    </row>
+    <row r="995" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A995">
+        <v>0</v>
+      </c>
+      <c r="B995">
+        <v>39</v>
+      </c>
+      <c r="C995" s="2">
+        <v>30</v>
+      </c>
+      <c r="D995" s="2">
+        <v>31</v>
+      </c>
+      <c r="E995">
+        <v>1.4033229859418264E-5</v>
+      </c>
+    </row>
+    <row r="996" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A996">
+        <v>0</v>
+      </c>
+      <c r="B996">
+        <v>39</v>
+      </c>
+      <c r="C996" s="2">
+        <v>37</v>
+      </c>
+      <c r="D996" s="2">
+        <v>37</v>
+      </c>
+      <c r="E996">
+        <v>1.2589408947428066E-5</v>
+      </c>
+    </row>
+    <row r="997" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A997">
+        <v>0</v>
+      </c>
+      <c r="B997">
+        <v>39</v>
+      </c>
+      <c r="C997" s="2">
+        <v>32</v>
+      </c>
+      <c r="D997" s="2">
+        <v>35</v>
+      </c>
+      <c r="E997">
+        <v>1.5465671108281003E-5</v>
+      </c>
+    </row>
+    <row r="998" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A998">
+        <v>0</v>
+      </c>
+      <c r="B998">
+        <v>39</v>
+      </c>
+      <c r="C998" s="2">
+        <v>32</v>
+      </c>
+      <c r="D998" s="2">
+        <v>34</v>
+      </c>
+      <c r="E998">
+        <v>1.5274190964034563E-5</v>
+      </c>
+    </row>
+    <row r="999" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A999">
+        <v>0</v>
+      </c>
+      <c r="B999">
+        <v>39</v>
+      </c>
+      <c r="C999" s="2">
+        <v>33</v>
+      </c>
+      <c r="D999" s="2">
+        <v>36</v>
+      </c>
+      <c r="E999">
+        <v>1.3313962151119439E-5</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1000">
+        <v>0</v>
+      </c>
+      <c r="B1000">
+        <v>39</v>
+      </c>
+      <c r="C1000" s="2">
+        <v>33</v>
+      </c>
+      <c r="D1000" s="2">
+        <v>37</v>
+      </c>
+      <c r="E1000">
+        <v>1.2727633628922704E-5</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1001">
+        <v>0</v>
+      </c>
+      <c r="B1001">
+        <v>39</v>
+      </c>
+      <c r="C1001" s="2">
+        <v>36</v>
+      </c>
+      <c r="D1001" s="2">
+        <v>37</v>
+      </c>
+      <c r="E1001">
+        <v>1.2104376673197588E-5</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1002">
+        <v>0</v>
+      </c>
+      <c r="B1002">
+        <v>39</v>
+      </c>
+      <c r="C1002" s="2">
+        <v>34</v>
+      </c>
+      <c r="D1002" s="2">
+        <v>36</v>
+      </c>
+      <c r="E1002">
+        <v>1.255675342783081E-5</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1003">
+        <v>0</v>
+      </c>
+      <c r="B1003">
+        <v>39</v>
+      </c>
+      <c r="C1003" s="2">
+        <v>34</v>
+      </c>
+      <c r="D1003" s="2">
+        <v>37</v>
+      </c>
+      <c r="E1003">
+        <v>1.2580814533379711E-5</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1004">
+        <v>0</v>
+      </c>
+      <c r="B1004">
+        <v>39</v>
+      </c>
+      <c r="C1004" s="2">
+        <v>33</v>
+      </c>
+      <c r="D1004" s="2">
+        <v>38</v>
+      </c>
+      <c r="E1004">
+        <v>1.3020797890021075E-5</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1005">
+        <v>0</v>
+      </c>
+      <c r="B1005">
+        <v>39</v>
+      </c>
+      <c r="C1005" s="2">
+        <v>34</v>
+      </c>
+      <c r="D1005" s="2">
+        <v>38</v>
+      </c>
+      <c r="E1005">
+        <v>1.2568783980605262E-5</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1006">
+        <v>0</v>
+      </c>
+      <c r="B1006">
+        <v>39</v>
+      </c>
+      <c r="C1006" s="2">
+        <v>35</v>
+      </c>
+      <c r="D1006" s="2">
+        <v>36</v>
+      </c>
+      <c r="E1006">
+        <v>1.3364921495825534E-5</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1007">
+        <v>0</v>
+      </c>
+      <c r="B1007">
+        <v>39</v>
+      </c>
+      <c r="C1007" s="2">
+        <v>35</v>
+      </c>
+      <c r="D1007" s="2">
+        <v>37</v>
+      </c>
+      <c r="E1007">
+        <v>1.3373413650725147E-5</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1008">
+        <v>0</v>
+      </c>
+      <c r="B1008">
+        <v>39</v>
+      </c>
+      <c r="C1008" s="2">
+        <v>35</v>
+      </c>
+      <c r="D1008" s="2">
+        <v>38</v>
+      </c>
+      <c r="E1008">
+        <v>1.3369167573275341E-5</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1009">
+        <v>0</v>
+      </c>
+      <c r="B1009">
+        <v>39</v>
+      </c>
+      <c r="C1009" s="2">
+        <v>38</v>
+      </c>
+      <c r="D1009" s="2">
+        <v>37</v>
+      </c>
+      <c r="E1009">
+        <v>1.2650071810381844E-5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/import/raw_data/e3m/e3m_parameters_RES.xlsx
+++ b/import/raw_data/e3m/e3m_parameters_RES.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bef\GitHub\micat\import\raw_data\e3m\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenz/Projekte/micat/import/raw_data/e3m/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D407C993-98CD-4054-844A-6F1DC00F4028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87FCC8B-4E0D-E848-B21F-256BCA628E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="20676" windowHeight="16656" xr2:uid="{DF6F4C0D-5158-4E58-BB2B-72468AC9A367}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="20680" windowHeight="16660" xr2:uid="{DF6F4C0D-5158-4E58-BB2B-72468AC9A367}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>label_region</t>
-  </si>
-  <si>
     <t>value</t>
   </si>
   <si>
@@ -51,6 +48,9 @@
   </si>
   <si>
     <t>id_action_type</t>
+  </si>
+  <si>
+    <t>id_region</t>
   </si>
 </sst>
 </file>
@@ -103,7 +103,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -438,34 +438,34 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E1009"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="5" width="20.77734375" customWidth="1"/>
+    <col min="2" max="5" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -482,7 +482,7 @@
         <v>0.57204000064952387</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -499,7 +499,7 @@
         <v>0.54573965465704199</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -516,7 +516,7 @@
         <v>0.51753718742243215</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -533,7 +533,7 @@
         <v>0.57204000064952387</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -550,7 +550,7 @@
         <v>0.58761718622828607</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -567,7 +567,7 @@
         <v>0.72263653284448925</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -584,7 +584,7 @@
         <v>0.70980796135978375</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>1</v>
       </c>
@@ -601,7 +601,7 @@
         <v>0.59879932325677687</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>1</v>
       </c>
@@ -618,7 +618,7 @@
         <v>0.61663435357495833</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>1</v>
       </c>
@@ -635,7 +635,7 @@
         <v>0.57358482700150737</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>1</v>
       </c>
@@ -652,7 +652,7 @@
         <v>0.58819659509900446</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>1</v>
       </c>
@@ -669,7 +669,7 @@
         <v>0.59189098489908643</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>1</v>
       </c>
@@ -686,7 +686,7 @@
         <v>0.60771683841586766</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>1</v>
       </c>
@@ -703,7 +703,7 @@
         <v>0.59004378999904539</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>1</v>
       </c>
@@ -720,7 +720,7 @@
         <v>0.64132319283858386</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>1</v>
       </c>
@@ -737,7 +737,7 @@
         <v>0.64262709512096583</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>1</v>
       </c>
@@ -754,7 +754,7 @@
         <v>0.64197514397977484</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>1</v>
       </c>
@@ -771,7 +771,7 @@
         <v>0.59750420479343735</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2</v>
       </c>
@@ -788,7 +788,7 @@
         <v>0.47778057096169868</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2</v>
       </c>
@@ -805,7 +805,7 @@
         <v>0.44049593366666689</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2</v>
       </c>
@@ -822,7 +822,7 @@
         <v>0.43177307023169059</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2</v>
       </c>
@@ -839,7 +839,7 @@
         <v>0.47778057096169868</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2</v>
       </c>
@@ -856,7 +856,7 @@
         <v>0.4885701261584568</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2</v>
       </c>
@@ -873,7 +873,7 @@
         <v>0.60331228940557979</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2</v>
       </c>
@@ -890,7 +890,7 @@
         <v>0.59538939314918282</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2</v>
       </c>
@@ -907,7 +907,7 @@
         <v>0.49908274238728761</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2</v>
       </c>
@@ -924,7 +924,7 @@
         <v>0.52739852346833893</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2</v>
       </c>
@@ -941,7 +941,7 @@
         <v>0.4748007048926946</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2</v>
       </c>
@@ -958,7 +958,7 @@
         <v>0.48709660686668033</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2</v>
       </c>
@@ -975,7 +975,7 @@
         <v>0.49153098364111464</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2</v>
       </c>
@@ -992,7 +992,7 @@
         <v>0.5132406329278133</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>0.48931379525389745</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>0.51394366955847492</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>0.51550874371415756</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2</v>
       </c>
@@ -1060,7 +1060,7 @@
         <v>0.5147262066363163</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>0.49259569754212884</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>27</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>0.55711545363115578</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>27</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>0.48027766606487843</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>27</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>0.48614812576028893</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>27</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>0.55711545363115578</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>27</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>0.57239647936402527</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>27</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>0.66666938360215533</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>27</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>0.66248212306688892</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>27</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>0.55579362666504939</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>27</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>0.56735980028823252</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>27</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>0.51862223668869423</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>27</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>0.53826006424707362</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>27</v>
       </c>
@@ -1281,7 +1281,7 @@
         <v>0.51449866189315197</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>27</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>0.56157671347664084</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>27</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>0.52637936307011279</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>27</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>0.57319467174065331</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>27</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>0.56480829443926917</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>27</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>0.56900148308996124</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>27</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>0.52406983221511538</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>11</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>0.53380516545651469</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>11</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>0.47133029425480416</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>11</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>0.48620179466915187</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>11</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>0.53380516545651469</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>11</v>
       </c>
@@ -1468,7 +1468,7 @@
         <v>0.56209501694193909</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>11</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>0.68504845683398752</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>11</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>0.67920125917255492</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>11</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>0.54459472518267515</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>11</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>0.56857584133663264</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>11</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>0.51922048187531256</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>11</v>
       </c>
@@ -1570,7 +1570,7 @@
         <v>0.54063876834802282</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>11</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>0.52658426505438582</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>11</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>0.55658528325965395</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>11</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>0.53361151670120432</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>11</v>
       </c>
@@ -1638,7 +1638,7 @@
         <v>0.58355167309956868</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>11</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>0.5785912601724027</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>11</v>
       </c>
@@ -1672,7 +1672,7 @@
         <v>0.58107146663598574</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>11</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>0.53309808707728601</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>3</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>0.4200071635770391</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>3</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>0.39565159176371184</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>3</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>0.396099834798603</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>3</v>
       </c>
@@ -1757,7 +1757,7 @@
         <v>0.4200071635770391</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>3</v>
       </c>
@@ -1774,7 +1774,7 @@
         <v>0.45702013796324481</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>3</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>0.62600255657407577</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>3</v>
       </c>
@@ -1808,7 +1808,7 @@
         <v>0.61947668129248967</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>3</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>0.45918671720642606</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>3</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>0.51141133767029123</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>3</v>
       </c>
@@ -1859,7 +1859,7 @@
         <v>0.44081446689559689</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>3</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>0.49300525028156295</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>3</v>
       </c>
@@ -1893,7 +1893,7 @@
         <v>0.50011451905216486</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>3</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>0.48529902743835868</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>3</v>
       </c>
@@ -1927,7 +1927,7 @@
         <v>0.49655988466686396</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>3</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>0.51426496033792191</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>3</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>0.51677411402166373</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>3</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>0.51551953717979271</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>3</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>0.51179921975930265</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>4</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>0.51977480089693961</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>4</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>0.51151510420361179</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>4</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>0.49507924342479864</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>4</v>
       </c>
@@ -2063,7 +2063,7 @@
         <v>0.51977480089693961</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>4</v>
       </c>
@@ -2080,7 +2080,7 @@
         <v>0.55200530215286858</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>4</v>
       </c>
@@ -2097,7 +2097,7 @@
         <v>0.6989353195827035</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>4</v>
       </c>
@@ -2114,7 +2114,7 @@
         <v>0.68379768206117453</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>4</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>0.54756075276406102</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>4</v>
       </c>
@@ -2148,7 +2148,7 @@
         <v>0.58860169360709191</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>4</v>
       </c>
@@ -2165,7 +2165,7 @@
         <v>0.53735435616506666</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>4</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>0.53539858839464527</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>4</v>
       </c>
@@ -2199,7 +2199,7 @@
         <v>0.54280615243468733</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>4</v>
       </c>
@@ -2216,7 +2216,7 @@
         <v>0.56808122318557641</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>4</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v>0.53910237041466624</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>4</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>0.58845799305977808</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>4</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>0.59107242742685184</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>4</v>
       </c>
@@ -2284,7 +2284,7 @@
         <v>0.58976521024331496</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>4</v>
       </c>
@@ -2301,7 +2301,7 @@
         <v>0.54953448951830575</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>6</v>
       </c>
@@ -2318,7 +2318,7 @@
         <v>0.52651761736267599</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>6</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>0.52470404596345044</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>6</v>
       </c>
@@ -2352,7 +2352,7 @@
         <v>0.50901965253245995</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>6</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>0.52651761736267599</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>6</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>0.53618899028754108</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>6</v>
       </c>
@@ -2403,7 +2403,7 @@
         <v>0.65372531278137758</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>6</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>0.64672903831842665</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>6</v>
       </c>
@@ -2437,7 +2437,7 @@
         <v>0.56046638541814797</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>6</v>
       </c>
@@ -2454,7 +2454,7 @@
         <v>0.58483813214659253</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>6</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>0.54098998427923473</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>6</v>
       </c>
@@ -2488,7 +2488,7 @@
         <v>0.52769605759431626</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>6</v>
       </c>
@@ -2505,7 +2505,7 @@
         <v>0.54306447677980352</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>6</v>
       </c>
@@ -2522,7 +2522,7 @@
         <v>0.57265225878237025</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>6</v>
       </c>
@@ -2539,7 +2539,7 @@
         <v>0.53538026718705989</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>6</v>
       </c>
@@ -2556,7 +2556,7 @@
         <v>0.56559301474889156</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>6</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>0.57101716269671077</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>6</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>0.56830508872280106</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>6</v>
       </c>
@@ -2607,7 +2607,7 @@
         <v>0.55442806279047918</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>7</v>
       </c>
@@ -2624,7 +2624,7 @@
         <v>0.47745156591368032</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>7</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>0.4093149180566259</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>7</v>
       </c>
@@ -2658,7 +2658,7 @@
         <v>0.41180300800359443</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>7</v>
       </c>
@@ -2675,7 +2675,7 @@
         <v>0.47745156591368032</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>7</v>
       </c>
@@ -2692,7 +2692,7 @@
         <v>0.49271623995706898</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>7</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>0.62020769930607034</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>7</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>0.60859878118863109</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>7</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>0.49798225356830084</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>7</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>0.5163186572230174</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>7</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>0.45196156647504798</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>7</v>
       </c>
@@ -2794,7 +2794,7 @@
         <v>0.47603597693048672</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>7</v>
       </c>
@@ -2811,7 +2811,7 @@
         <v>0.46285224886780879</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>7</v>
       </c>
@@ -2828,7 +2828,7 @@
         <v>0.50715045539565906</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>7</v>
       </c>
@@ -2845,7 +2845,7 @@
         <v>0.46944411289914778</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>7</v>
       </c>
@@ -2862,7 +2862,7 @@
         <v>0.53438425584185811</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>7</v>
       </c>
@@ -2879,7 +2879,7 @@
         <v>0.52973117534914826</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>7</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>0.53205771559550319</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>7</v>
       </c>
@@ -2913,7 +2913,7 @@
         <v>0.46871504989739704</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>9</v>
       </c>
@@ -2930,7 +2930,7 @@
         <v>0.62315878991401696</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>9</v>
       </c>
@@ -2947,7 +2947,7 @@
         <v>0.62550748051244809</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>9</v>
       </c>
@@ -2964,7 +2964,7 @@
         <v>0.62094569675352007</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>9</v>
       </c>
@@ -2981,7 +2981,7 @@
         <v>0.62315878991401696</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>9</v>
       </c>
@@ -2998,7 +2998,7 @@
         <v>0.63443944418977061</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>9</v>
       </c>
@@ -3015,7 +3015,7 @@
         <v>0.72113302040354488</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>9</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>0.71345213081450609</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>9</v>
       </c>
@@ -3049,7 +3049,7 @@
         <v>0.64280968424745633</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>9</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>0.67018454524949511</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>9</v>
       </c>
@@ -3083,7 +3083,7 @@
         <v>0.63986589314893139</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>9</v>
       </c>
@@ -3100,7 +3100,7 @@
         <v>0.62861701126258651</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>9</v>
       </c>
@@ -3117,7 +3117,7 @@
         <v>0.6425598600730017</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>9</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>0.65649711474847572</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>9</v>
       </c>
@@ -3151,7 +3151,7 @@
         <v>0.6355884356677941</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>9</v>
       </c>
@@ -3168,7 +3168,7 @@
         <v>0.64275481795930078</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>9</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>0.64767582342180019</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>9</v>
       </c>
@@ -3202,7 +3202,7 @@
         <v>0.64521532069055054</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>9</v>
       </c>
@@ -3219,7 +3219,7 @@
         <v>0.64322692329060427</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>10</v>
       </c>
@@ -3236,7 +3236,7 @@
         <v>0.57310684340584661</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>10</v>
       </c>
@@ -3253,7 +3253,7 @@
         <v>0.54872832460869103</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>10</v>
       </c>
@@ -3270,7 +3270,7 @@
         <v>0.54443140241343047</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>10</v>
       </c>
@@ -3287,7 +3287,7 @@
         <v>0.57310684340584661</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>10</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>0.59655201285213755</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>10</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>0.72230889759493788</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>10</v>
       </c>
@@ -3338,7 +3338,7 @@
         <v>0.71602593251820468</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>10</v>
       </c>
@@ -3355,7 +3355,7 @@
         <v>0.5925915808393537</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>10</v>
       </c>
@@ -3372,7 +3372,7 @@
         <v>0.62961378659469036</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>10</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>0.58308955932412576</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>10</v>
       </c>
@@ -3406,7 +3406,7 @@
         <v>0.61182112929253185</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>10</v>
       </c>
@@ -3423,7 +3423,7 @@
         <v>0.61731798872624688</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>10</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>0.61110268371702214</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>10</v>
       </c>
@@ -3457,7 +3457,7 @@
         <v>0.61456955900938937</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>10</v>
       </c>
@@ -3474,7 +3474,7 @@
         <v>0.64249936106205718</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>10</v>
       </c>
@@ -3491,7 +3491,7 @@
         <v>0.64443942909748608</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>10</v>
       </c>
@@ -3508,7 +3508,7 @@
         <v>0.64346939507977152</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>10</v>
       </c>
@@ -3525,7 +3525,7 @@
         <v>0.62372212485514922</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>5</v>
       </c>
@@ -3542,7 +3542,7 @@
         <v>0.65542508660565701</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>5</v>
       </c>
@@ -3559,7 +3559,7 @@
         <v>0.67858047052798431</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>5</v>
       </c>
@@ -3576,7 +3576,7 @@
         <v>0.66454603038797089</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>5</v>
       </c>
@@ -3593,7 +3593,7 @@
         <v>0.65542508660565701</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>5</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>0.67771242304531121</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>5</v>
       </c>
@@ -3627,7 +3627,7 @@
         <v>0.7821626014560662</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>5</v>
       </c>
@@ -3644,7 +3644,7 @@
         <v>0.7719634576199419</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>5</v>
       </c>
@@ -3661,7 +3661,7 @@
         <v>0.69009694349297324</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>5</v>
       </c>
@@ -3678,7 +3678,7 @@
         <v>0.72141640897483317</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>5</v>
       </c>
@@ -3695,7 +3695,7 @@
         <v>0.6876285395913202</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>5</v>
       </c>
@@ -3712,7 +3712,7 @@
         <v>0.6873019654902548</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>5</v>
       </c>
@@ -3729,7 +3729,7 @@
         <v>0.70470363870705666</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>5</v>
       </c>
@@ -3746,7 +3746,7 @@
         <v>0.70575667623390315</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>5</v>
       </c>
@@ -3763,7 +3763,7 @@
         <v>0.69600280209865573</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>5</v>
       </c>
@@ -3780,7 +3780,7 @@
         <v>0.71636801102213465</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>5</v>
       </c>
@@ -3797,7 +3797,7 @@
         <v>0.72250977803982941</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>5</v>
       </c>
@@ -3814,7 +3814,7 @@
         <v>0.71943889453098209</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>5</v>
       </c>
@@ -3831,7 +3831,7 @@
         <v>0.70785936815444594</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>8</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>0.57413107744075742</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>8</v>
       </c>
@@ -3865,7 +3865,7 @@
         <v>0.50619282529453047</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>8</v>
       </c>
@@ -3882,7 +3882,7 @@
         <v>0.49319522681887085</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>8</v>
       </c>
@@ -3899,7 +3899,7 @@
         <v>0.57413107744075742</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>8</v>
       </c>
@@ -3916,7 +3916,7 @@
         <v>0.59679990008711181</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>8</v>
       </c>
@@ -3933,7 +3933,7 @@
         <v>0.69765129987436503</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>8</v>
       </c>
@@ -3950,7 +3950,7 @@
         <v>0.69430229916401998</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>8</v>
       </c>
@@ -3967,7 +3967,7 @@
         <v>0.58277357371652549</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>8</v>
       </c>
@@ -3984,7 +3984,7 @@
         <v>0.61259325818218446</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>8</v>
       </c>
@@ -4001,7 +4001,7 @@
         <v>0.5517923527089027</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>8</v>
       </c>
@@ -4018,7 +4018,7 @@
         <v>0.60386900684436773</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>8</v>
       </c>
@@ -4035,7 +4035,7 @@
         <v>0.58701899966390103</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>8</v>
       </c>
@@ -4052,7 +4052,7 @@
         <v>0.59768341594935492</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>8</v>
       </c>
@@ -4069,7 +4069,7 @@
         <v>0.59544400325413438</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>8</v>
       </c>
@@ -4086,7 +4086,7 @@
         <v>0.63496392772905896</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>8</v>
       </c>
@@ -4103,7 +4103,7 @@
         <v>0.62901686637124721</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>8</v>
       </c>
@@ -4120,7 +4120,7 @@
         <v>0.63199039705015314</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>8</v>
       </c>
@@ -4137,7 +4137,7 @@
         <v>0.5923764937424526</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>12</v>
       </c>
@@ -4154,7 +4154,7 @@
         <v>0.46658556029641785</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>12</v>
       </c>
@@ -4171,7 +4171,7 @@
         <v>0.41311681710527298</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>12</v>
       </c>
@@ -4188,7 +4188,7 @@
         <v>0.39885077168015098</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>12</v>
       </c>
@@ -4205,7 +4205,7 @@
         <v>0.46658556029641785</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>12</v>
       </c>
@@ -4222,7 +4222,7 @@
         <v>0.47053272175221611</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>12</v>
       </c>
@@ -4239,7 +4239,7 @@
         <v>0.5989149976726309</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>12</v>
       </c>
@@ -4256,7 +4256,7 @@
         <v>0.58736078342322484</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>12</v>
       </c>
@@ -4273,7 +4273,7 @@
         <v>0.47669583144387889</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>12</v>
       </c>
@@ -4290,7 +4290,7 @@
         <v>0.48047986197854475</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>12</v>
       </c>
@@ -4307,7 +4307,7 @@
         <v>0.44028204951594202</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>12</v>
       </c>
@@ -4324,7 +4324,7 @@
         <v>0.45763833747209681</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>12</v>
       </c>
@@ -4341,7 +4341,7 @@
         <v>0.45027501896646122</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>12</v>
       </c>
@@ -4358,7 +4358,7 @@
         <v>0.4785878467112118</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>12</v>
       </c>
@@ -4375,7 +4375,7 @@
         <v>0.45395667821927899</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>12</v>
       </c>
@@ -4392,7 +4392,7 @@
         <v>0.51367937918174988</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>12</v>
       </c>
@@ -4409,7 +4409,7 @@
         <v>0.51108056088564313</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>12</v>
       </c>
@@ -4426,7 +4426,7 @@
         <v>0.51237997003369651</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>12</v>
       </c>
@@ -4443,7 +4443,7 @@
         <v>0.46000036942561712</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>13</v>
       </c>
@@ -4460,7 +4460,7 @@
         <v>0.48440663817455165</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>13</v>
       </c>
@@ -4477,7 +4477,7 @@
         <v>0.48663691158235989</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>13</v>
       </c>
@@ -4494,7 +4494,7 @@
         <v>0.47789061153128509</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>13</v>
       </c>
@@ -4511,7 +4511,7 @@
         <v>0.48440663817455165</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>13</v>
       </c>
@@ -4528,7 +4528,7 @@
         <v>0.49819259563402862</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>13</v>
       </c>
@@ -4545,7 +4545,7 @@
         <v>0.62416371915182134</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>13</v>
       </c>
@@ -4562,7 +4562,7 @@
         <v>0.61012221085626894</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>13</v>
       </c>
@@ -4579,7 +4579,7 @@
         <v>0.52113084375696361</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>13</v>
       </c>
@@ -4596,7 +4596,7 @@
         <v>0.55638214236522665</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>13</v>
       </c>
@@ -4613,7 +4613,7 @@
         <v>0.50704886583168407</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>13</v>
       </c>
@@ -4630,7 +4630,7 @@
         <v>0.52013784221079917</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>13</v>
       </c>
@@ -4647,7 +4647,7 @@
         <v>0.53936240712710581</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>13</v>
       </c>
@@ -4664,7 +4664,7 @@
         <v>0.53875649306109519</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>13</v>
       </c>
@@ -4681,7 +4681,7 @@
         <v>0.52975012466895244</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>13</v>
       </c>
@@ -4698,7 +4698,7 @@
         <v>0.53682773709552667</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>13</v>
       </c>
@@ -4715,7 +4715,7 @@
         <v>0.54361287765422317</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>13</v>
       </c>
@@ -4732,7 +4732,7 @@
         <v>0.54022030737487492</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>13</v>
       </c>
@@ -4749,7 +4749,7 @@
         <v>0.54143921445910326</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>14</v>
       </c>
@@ -4766,7 +4766,7 @@
         <v>0.68749641970576258</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>14</v>
       </c>
@@ -4783,7 +4783,7 @@
         <v>0.71541028648692939</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>14</v>
       </c>
@@ -4800,7 +4800,7 @@
         <v>0.70765228416838211</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>14</v>
       </c>
@@ -4817,7 +4817,7 @@
         <v>0.68749641970576258</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>14</v>
       </c>
@@ -4834,7 +4834,7 @@
         <v>0.70592059503963733</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>14</v>
       </c>
@@ -4851,7 +4851,7 @@
         <v>0.78582391497540272</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>14</v>
       </c>
@@ -4868,7 +4868,7 @@
         <v>0.77896020424027812</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>14</v>
       </c>
@@ -4885,7 +4885,7 @@
         <v>0.71449999713921508</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>14</v>
       </c>
@@ -4902,7 +4902,7 @@
         <v>0.74656113277312242</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>14</v>
       </c>
@@ -4919,7 +4919,7 @@
         <v>0.71986131429539668</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>14</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>0.71473203035882249</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>14</v>
       </c>
@@ -4953,7 +4953,7 @@
         <v>0.73340655968184232</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>14</v>
       </c>
@@ -4970,7 +4970,7 @@
         <v>0.73053056495616864</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>14</v>
       </c>
@@ -4987,7 +4987,7 @@
         <v>0.72406929502033246</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>14</v>
       </c>
@@ -5004,7 +5004,7 @@
         <v>0.73944263948216604</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>14</v>
       </c>
@@ -5021,7 +5021,7 @@
         <v>0.74603364983146725</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>14</v>
       </c>
@@ -5038,7 +5038,7 @@
         <v>0.74273814465681665</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>14</v>
       </c>
@@ -5055,7 +5055,7 @@
         <v>0.73504931232079662</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>15</v>
       </c>
@@ -5072,7 +5072,7 @@
         <v>0.47894363679049873</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>15</v>
       </c>
@@ -5089,7 +5089,7 @@
         <v>0.4107153809360099</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>15</v>
       </c>
@@ -5106,7 +5106,7 @@
         <v>0.42674958306030997</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>15</v>
       </c>
@@ -5123,7 +5123,7 @@
         <v>0.47894363679049873</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>15</v>
       </c>
@@ -5140,7 +5140,7 @@
         <v>0.49881327235573208</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>15</v>
       </c>
@@ -5157,7 +5157,7 @@
         <v>0.62736307379546352</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>15</v>
       </c>
@@ -5174,7 +5174,7 @@
         <v>0.61794213359675776</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>15</v>
       </c>
@@ -5191,7 +5191,7 @@
         <v>0.50308754938689537</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>15</v>
       </c>
@@ -5208,7 +5208,7 @@
         <v>0.53975251963831106</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>15</v>
       </c>
@@ -5225,7 +5225,7 @@
         <v>0.46226571374934655</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>15</v>
       </c>
@@ -5242,7 +5242,7 @@
         <v>0.49158773766318253</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>15</v>
       </c>
@@ -5259,7 +5259,7 @@
         <v>0.48304399086617328</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>15</v>
       </c>
@@ -5276,7 +5276,7 @@
         <v>0.52142003451260321</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>15</v>
       </c>
@@ -5293,7 +5293,7 @@
         <v>0.48731586426467788</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>15</v>
       </c>
@@ -5310,7 +5310,7 @@
         <v>0.54623639866973195</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>15</v>
       </c>
@@ -5327,7 +5327,7 @@
         <v>0.54322095862372877</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>15</v>
       </c>
@@ -5344,7 +5344,7 @@
         <v>0.54472867864673036</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>15</v>
       </c>
@@ -5361,7 +5361,7 @@
         <v>0.48894362951969023</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>16</v>
       </c>
@@ -5378,7 +5378,7 @@
         <v>0.48808285974641907</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>16</v>
       </c>
@@ -5395,7 +5395,7 @@
         <v>0.43269080738003168</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>16</v>
       </c>
@@ -5412,7 +5412,7 @@
         <v>0.41207395421501725</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>16</v>
       </c>
@@ -5429,7 +5429,7 @@
         <v>0.48808285974641907</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>16</v>
       </c>
@@ -5446,7 +5446,7 @@
         <v>0.50884265648162108</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>16</v>
       </c>
@@ -5463,7 +5463,7 @@
         <v>0.67329286569401992</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>16</v>
       </c>
@@ -5480,7 +5480,7 @@
         <v>0.65955218339619881</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>16</v>
       </c>
@@ -5497,7 +5497,7 @@
         <v>0.51479035500547399</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>16</v>
       </c>
@@ -5514,7 +5514,7 @@
         <v>0.54739658485039389</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>16</v>
       </c>
@@ -5531,7 +5531,7 @@
         <v>0.47473813541392207</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>16</v>
       </c>
@@ -5548,7 +5548,7 @@
         <v>0.48879337078292945</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>16</v>
       </c>
@@ -5565,7 +5565,7 @@
         <v>0.48465262372310314</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>16</v>
       </c>
@@ -5582,7 +5582,7 @@
         <v>0.53109346992793394</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>16</v>
       </c>
@@ -5599,7 +5599,7 @@
         <v>0.48672299725301627</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>16</v>
       </c>
@@ -5616,7 +5616,7 @@
         <v>0.56552461494765838</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>16</v>
       </c>
@@ -5633,7 +5633,7 @@
         <v>0.56406317480889612</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>16</v>
       </c>
@@ -5650,7 +5650,7 @@
         <v>0.56479389487827725</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>16</v>
       </c>
@@ -5667,7 +5667,7 @@
         <v>0.49229814407676886</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>17</v>
       </c>
@@ -5684,7 +5684,7 @@
         <v>0.47778057096169868</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>17</v>
       </c>
@@ -5701,7 +5701,7 @@
         <v>0.44049593366666689</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>17</v>
       </c>
@@ -5718,7 +5718,7 @@
         <v>0.43177307023169059</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>17</v>
       </c>
@@ -5735,7 +5735,7 @@
         <v>0.47778057096169868</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>17</v>
       </c>
@@ -5752,7 +5752,7 @@
         <v>0.4885701261584568</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>17</v>
       </c>
@@ -5769,7 +5769,7 @@
         <v>0.60331228940557979</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>17</v>
       </c>
@@ -5786,7 +5786,7 @@
         <v>0.59538939314918282</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>17</v>
       </c>
@@ -5803,7 +5803,7 @@
         <v>0.49908274238728761</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>17</v>
       </c>
@@ -5820,7 +5820,7 @@
         <v>0.52739852346833893</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>17</v>
       </c>
@@ -5837,7 +5837,7 @@
         <v>0.4748007048926946</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>17</v>
       </c>
@@ -5854,7 +5854,7 @@
         <v>0.48709660686668033</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>17</v>
       </c>
@@ -5871,7 +5871,7 @@
         <v>0.49153098364111464</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>17</v>
       </c>
@@ -5888,7 +5888,7 @@
         <v>0.5132406329278133</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>17</v>
       </c>
@@ -5905,7 +5905,7 @@
         <v>0.48931379525389745</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>17</v>
       </c>
@@ -5922,7 +5922,7 @@
         <v>0.51394366955847492</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>17</v>
       </c>
@@ -5939,7 +5939,7 @@
         <v>0.51550874371415756</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>17</v>
       </c>
@@ -5956,7 +5956,7 @@
         <v>0.5147262066363163</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>17</v>
       </c>
@@ -5973,7 +5973,7 @@
         <v>0.49259569754212884</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>18</v>
       </c>
@@ -5990,7 +5990,7 @@
         <v>0.4200071635770391</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>18</v>
       </c>
@@ -6007,7 +6007,7 @@
         <v>0.39565159176371184</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>18</v>
       </c>
@@ -6024,7 +6024,7 @@
         <v>0.396099834798603</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>18</v>
       </c>
@@ -6041,7 +6041,7 @@
         <v>0.4200071635770391</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>18</v>
       </c>
@@ -6058,7 +6058,7 @@
         <v>0.45702013796324481</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>18</v>
       </c>
@@ -6075,7 +6075,7 @@
         <v>0.62600255657407577</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>18</v>
       </c>
@@ -6092,7 +6092,7 @@
         <v>0.61947668129248967</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>18</v>
       </c>
@@ -6109,7 +6109,7 @@
         <v>0.45918671720642606</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>18</v>
       </c>
@@ -6126,7 +6126,7 @@
         <v>0.51141133767029123</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>18</v>
       </c>
@@ -6143,7 +6143,7 @@
         <v>0.44081446689559689</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>18</v>
       </c>
@@ -6160,7 +6160,7 @@
         <v>0.49300525028156295</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>18</v>
       </c>
@@ -6177,7 +6177,7 @@
         <v>0.50011451905216486</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>18</v>
       </c>
@@ -6194,7 +6194,7 @@
         <v>0.48529902743835868</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>18</v>
       </c>
@@ -6211,7 +6211,7 @@
         <v>0.49655988466686396</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>18</v>
       </c>
@@ -6228,7 +6228,7 @@
         <v>0.51426496033792191</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>18</v>
       </c>
@@ -6245,7 +6245,7 @@
         <v>0.51677411402166373</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>18</v>
       </c>
@@ -6262,7 +6262,7 @@
         <v>0.51551953717979271</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>18</v>
       </c>
@@ -6279,7 +6279,7 @@
         <v>0.51179921975930265</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>19</v>
       </c>
@@ -6296,7 +6296,7 @@
         <v>0.48440663817455165</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>19</v>
       </c>
@@ -6313,7 +6313,7 @@
         <v>0.48663691158235989</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>19</v>
       </c>
@@ -6330,7 +6330,7 @@
         <v>0.47789061153128509</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>19</v>
       </c>
@@ -6347,7 +6347,7 @@
         <v>0.48440663817455165</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>19</v>
       </c>
@@ -6364,7 +6364,7 @@
         <v>0.49819259563402862</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>19</v>
       </c>
@@ -6381,7 +6381,7 @@
         <v>0.62416371915182134</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>19</v>
       </c>
@@ -6398,7 +6398,7 @@
         <v>0.61012221085626894</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>19</v>
       </c>
@@ -6415,7 +6415,7 @@
         <v>0.52113084375696361</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>19</v>
       </c>
@@ -6432,7 +6432,7 @@
         <v>0.55638214236522665</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>19</v>
       </c>
@@ -6449,7 +6449,7 @@
         <v>0.50704886583168407</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>19</v>
       </c>
@@ -6466,7 +6466,7 @@
         <v>0.52013784221079917</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>19</v>
       </c>
@@ -6483,7 +6483,7 @@
         <v>0.53936240712710581</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>19</v>
       </c>
@@ -6500,7 +6500,7 @@
         <v>0.53875649306109519</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>19</v>
       </c>
@@ -6517,7 +6517,7 @@
         <v>0.52975012466895244</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>19</v>
       </c>
@@ -6534,7 +6534,7 @@
         <v>0.53682773709552667</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>19</v>
       </c>
@@ -6551,7 +6551,7 @@
         <v>0.54361287765422317</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>19</v>
       </c>
@@ -6568,7 +6568,7 @@
         <v>0.54022030737487492</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>19</v>
       </c>
@@ -6585,7 +6585,7 @@
         <v>0.54143921445910326</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>20</v>
       </c>
@@ -6602,7 +6602,7 @@
         <v>0.57286103751635786</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>20</v>
       </c>
@@ -6619,7 +6619,7 @@
         <v>0.50535418126046572</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>20</v>
       </c>
@@ -6636,7 +6636,7 @@
         <v>0.47766579223752137</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>20</v>
       </c>
@@ -6653,7 +6653,7 @@
         <v>0.57286103751635786</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>20</v>
       </c>
@@ -6670,7 +6670,7 @@
         <v>0.58991962817857724</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>20</v>
       </c>
@@ -6687,7 +6687,7 @@
         <v>0.69693967143317392</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>20</v>
       </c>
@@ -6704,7 +6704,7 @@
         <v>0.69416292628207299</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>20</v>
       </c>
@@ -6721,7 +6721,7 @@
         <v>0.57672818072116794</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>20</v>
       </c>
@@ -6738,7 +6738,7 @@
         <v>0.59591745868873525</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>20</v>
       </c>
@@ -6755,7 +6755,7 @@
         <v>0.54972671836427378</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>20</v>
       </c>
@@ -6772,7 +6772,7 @@
         <v>0.59165055821303048</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>20</v>
       </c>
@@ -6789,7 +6789,7 @@
         <v>0.57762164531868354</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>20</v>
       </c>
@@ -6806,7 +6806,7 @@
         <v>0.58632281970495159</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>20</v>
       </c>
@@ -6823,7 +6823,7 @@
         <v>0.58463610176585701</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>20</v>
       </c>
@@ -6840,7 +6840,7 @@
         <v>0.6268222252750586</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>20</v>
       </c>
@@ -6857,7 +6857,7 @@
         <v>0.62187084425352446</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>20</v>
       </c>
@@ -6874,7 +6874,7 @@
         <v>0.62434653476429158</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>20</v>
       </c>
@@ -6891,7 +6891,7 @@
         <v>0.58160737447693434</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>21</v>
       </c>
@@ -6908,7 +6908,7 @@
         <v>0.53902825099832163</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>21</v>
       </c>
@@ -6925,7 +6925,7 @@
         <v>0.48833505838199454</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>21</v>
       </c>
@@ -6942,7 +6942,7 @@
         <v>0.49004212007501058</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>21</v>
       </c>
@@ -6959,7 +6959,7 @@
         <v>0.53902825099832163</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>21</v>
       </c>
@@ -6976,7 +6976,7 @@
         <v>0.56613818898681501</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>21</v>
       </c>
@@ -6993,7 +6993,7 @@
         <v>0.70459667615164467</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>21</v>
       </c>
@@ -7010,7 +7010,7 @@
         <v>0.69934833267037733</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>21</v>
       </c>
@@ -7027,7 +7027,7 @@
         <v>0.56488118980657342</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>21</v>
       </c>
@@ -7044,7 +7044,7 @@
         <v>0.5975623735636626</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>21</v>
       </c>
@@ -7061,7 +7061,7 @@
         <v>0.53390923719995953</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>21</v>
       </c>
@@ -7078,7 +7078,7 @@
         <v>0.59145978041030944</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>21</v>
       </c>
@@ -7095,7 +7095,7 @@
         <v>0.58441535836438396</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>21</v>
       </c>
@@ -7112,7 +7112,7 @@
         <v>0.58122178168511807</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>21</v>
       </c>
@@ -7129,7 +7129,7 @@
         <v>0.58793756938734676</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>21</v>
       </c>
@@ -7146,7 +7146,7 @@
         <v>0.62472931876007454</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>21</v>
       </c>
@@ -7163,7 +7163,7 @@
         <v>0.62224305215563036</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>21</v>
       </c>
@@ -7180,7 +7180,7 @@
         <v>0.6234861854578525</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>21</v>
       </c>
@@ -7197,7 +7197,7 @@
         <v>0.5903800176375148</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>26</v>
       </c>
@@ -7214,7 +7214,7 @@
         <v>0.55711545363115578</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>26</v>
       </c>
@@ -7231,7 +7231,7 @@
         <v>0.48027766606487843</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>26</v>
       </c>
@@ -7248,7 +7248,7 @@
         <v>0.48614812576028893</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>26</v>
       </c>
@@ -7265,7 +7265,7 @@
         <v>0.55711545363115578</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>26</v>
       </c>
@@ -7282,7 +7282,7 @@
         <v>0.57239647936402527</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>26</v>
       </c>
@@ -7299,7 +7299,7 @@
         <v>0.66666938360215533</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>26</v>
       </c>
@@ -7316,7 +7316,7 @@
         <v>0.66248212306688892</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>26</v>
       </c>
@@ -7333,7 +7333,7 @@
         <v>0.55579362666504939</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>26</v>
       </c>
@@ -7350,7 +7350,7 @@
         <v>0.56735980028823252</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>26</v>
       </c>
@@ -7367,7 +7367,7 @@
         <v>0.51862223668869423</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>26</v>
       </c>
@@ -7384,7 +7384,7 @@
         <v>0.53826006424707362</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>26</v>
       </c>
@@ -7401,7 +7401,7 @@
         <v>0.51449866189315197</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>26</v>
       </c>
@@ -7418,7 +7418,7 @@
         <v>0.56157671347664084</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>26</v>
       </c>
@@ -7435,7 +7435,7 @@
         <v>0.52637936307011279</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>26</v>
       </c>
@@ -7452,7 +7452,7 @@
         <v>0.57319467174065331</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>26</v>
       </c>
@@ -7469,7 +7469,7 @@
         <v>0.56480829443926917</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>26</v>
       </c>
@@ -7486,7 +7486,7 @@
         <v>0.56900148308996124</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>26</v>
       </c>
@@ -7503,7 +7503,7 @@
         <v>0.52406983221511538</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>22</v>
       </c>
@@ -7520,7 +7520,7 @@
         <v>0.51977480089693961</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>22</v>
       </c>
@@ -7537,7 +7537,7 @@
         <v>0.51151510420361179</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>22</v>
       </c>
@@ -7554,7 +7554,7 @@
         <v>0.49507924342479864</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>22</v>
       </c>
@@ -7571,7 +7571,7 @@
         <v>0.51977480089693961</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>22</v>
       </c>
@@ -7588,7 +7588,7 @@
         <v>0.55200530215286858</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>22</v>
       </c>
@@ -7605,7 +7605,7 @@
         <v>0.6989353195827035</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>22</v>
       </c>
@@ -7622,7 +7622,7 @@
         <v>0.68379768206117453</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>22</v>
       </c>
@@ -7639,7 +7639,7 @@
         <v>0.54756075276406102</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>22</v>
       </c>
@@ -7656,7 +7656,7 @@
         <v>0.58860169360709191</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>22</v>
       </c>
@@ -7673,7 +7673,7 @@
         <v>0.53735435616506666</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>22</v>
       </c>
@@ -7690,7 +7690,7 @@
         <v>0.53539858839464527</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>22</v>
       </c>
@@ -7707,7 +7707,7 @@
         <v>0.54280615243468733</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>22</v>
       </c>
@@ -7724,7 +7724,7 @@
         <v>0.56808122318557641</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>22</v>
       </c>
@@ -7741,7 +7741,7 @@
         <v>0.53910237041466624</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>22</v>
       </c>
@@ -7758,7 +7758,7 @@
         <v>0.58845799305977808</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>22</v>
       </c>
@@ -7775,7 +7775,7 @@
         <v>0.59107242742685184</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>22</v>
       </c>
@@ -7792,7 +7792,7 @@
         <v>0.58976521024331496</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>22</v>
       </c>
@@ -7809,7 +7809,7 @@
         <v>0.54953448951830575</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>23</v>
       </c>
@@ -7826,7 +7826,7 @@
         <v>0.60812818318618844</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>23</v>
       </c>
@@ -7843,7 +7843,7 @@
         <v>0.53098264201611578</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>23</v>
       </c>
@@ -7860,7 +7860,7 @@
         <v>0.52059912852772083</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>23</v>
       </c>
@@ -7877,7 +7877,7 @@
         <v>0.60812818318618844</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>23</v>
       </c>
@@ -7894,7 +7894,7 @@
         <v>0.61746580059937461</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>23</v>
       </c>
@@ -7911,7 +7911,7 @@
         <v>0.69550728500144521</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>23</v>
       </c>
@@ -7928,7 +7928,7 @@
         <v>0.68188218634314823</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>23</v>
       </c>
@@ -7945,7 +7945,7 @@
         <v>0.60992748307943434</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>23</v>
       </c>
@@ -7962,7 +7962,7 @@
         <v>0.62591634609765778</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>23</v>
       </c>
@@ -7979,7 +7979,7 @@
         <v>0.57591491507138948</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>23</v>
       </c>
@@ -7996,7 +7996,7 @@
         <v>0.61178837131121711</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>23</v>
       </c>
@@ -8013,7 +8013,7 @@
         <v>0.59459312064650671</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>23</v>
       </c>
@@ -8030,7 +8030,7 @@
         <v>0.61792191458854606</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>23</v>
       </c>
@@ -8047,7 +8047,7 @@
         <v>0.60319074597886191</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>23</v>
       </c>
@@ -8064,7 +8064,7 @@
         <v>0.63687697910386221</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>23</v>
       </c>
@@ -8081,7 +8081,7 @@
         <v>0.63080806710455262</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>23</v>
       </c>
@@ -8098,7 +8098,7 @@
         <v>0.63384252310420752</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>23</v>
       </c>
@@ -8115,7 +8115,7 @@
         <v>0.58631227913353601</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>24</v>
       </c>
@@ -8132,7 +8132,7 @@
         <v>0.64873135986963903</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>24</v>
       </c>
@@ -8149,7 +8149,7 @@
         <v>0.6393789961723626</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>24</v>
       </c>
@@ -8166,7 +8166,7 @@
         <v>0.63950015225397305</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>24</v>
       </c>
@@ -8183,7 +8183,7 @@
         <v>0.64873135986963903</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>24</v>
       </c>
@@ -8200,7 +8200,7 @@
         <v>0.6741688137372116</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>24</v>
       </c>
@@ -8217,7 +8217,7 @@
         <v>0.76822411631988619</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>24</v>
       </c>
@@ -8234,7 +8234,7 @@
         <v>0.76380693260346955</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>24</v>
       </c>
@@ -8251,7 +8251,7 @@
         <v>0.6735529548626864</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>24</v>
       </c>
@@ -8268,7 +8268,7 @@
         <v>0.71516678131663092</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>24</v>
       </c>
@@ -8285,7 +8285,7 @@
         <v>0.66273036860538725</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>24</v>
       </c>
@@ -8302,7 +8302,7 @@
         <v>0.65074772579553186</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>24</v>
       </c>
@@ -8319,7 +8319,7 @@
         <v>0.65665460759029071</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>24</v>
       </c>
@@ -8336,7 +8336,7 @@
         <v>0.69435986808965866</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>24</v>
       </c>
@@ -8353,7 +8353,7 @@
         <v>0.65370116669291134</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>24</v>
       </c>
@@ -8370,7 +8370,7 @@
         <v>0.69076897312046004</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>24</v>
       </c>
@@ -8387,7 +8387,7 @@
         <v>0.69285375493037482</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>24</v>
       </c>
@@ -8404,7 +8404,7 @@
         <v>0.69181136402541743</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>24</v>
       </c>
@@ -8421,7 +8421,7 @@
         <v>0.65915394628801516</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>25</v>
       </c>
@@ -8438,7 +8438,7 @@
         <v>0.5862041166625801</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>25</v>
       </c>
@@ -8455,7 +8455,7 @@
         <v>0.60641772928025872</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>25</v>
       </c>
@@ -8472,7 +8472,7 @@
         <v>0.58709207805526409</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>25</v>
       </c>
@@ -8489,7 +8489,7 @@
         <v>0.5862041166625801</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>25</v>
       </c>
@@ -8506,7 +8506,7 @@
         <v>0.61322606748725272</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>25</v>
       </c>
@@ -8523,7 +8523,7 @@
         <v>0.72920564425231227</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>25</v>
       </c>
@@ -8540,7 +8540,7 @@
         <v>0.71473809982195147</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>25</v>
       </c>
@@ -8557,7 +8557,7 @@
         <v>0.61949991511995706</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>25</v>
       </c>
@@ -8574,7 +8574,7 @@
         <v>0.6691212300037741</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>25</v>
       </c>
@@ -8591,7 +8591,7 @@
         <v>0.62486504586077973</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>25</v>
       </c>
@@ -8608,7 +8608,7 @@
         <v>0.60503354729922276</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>25</v>
       </c>
@@ -8625,7 +8625,7 @@
         <v>0.62778618995866964</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>25</v>
       </c>
@@ -8642,7 +8642,7 @@
         <v>0.64431057256186564</v>
       </c>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>25</v>
       </c>
@@ -8659,7 +8659,7 @@
         <v>0.6164098686289462</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>25</v>
       </c>
@@ -8676,7 +8676,7 @@
         <v>0.64001788444020313</v>
       </c>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>25</v>
       </c>
@@ -8693,7 +8693,7 @@
         <v>0.64804822890824321</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>25</v>
       </c>
@@ -8710,7 +8710,7 @@
         <v>0.64403305667422317</v>
       </c>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>25</v>
       </c>
@@ -8727,7 +8727,7 @@
         <v>0.63154584475666631</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A488" s="2">
         <v>1</v>
       </c>
@@ -8744,7 +8744,7 @@
         <v>8.4302131223992102E-6</v>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A489" s="2">
         <v>1</v>
       </c>
@@ -8761,7 +8761,7 @@
         <v>6.6567668895320502E-6</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A490" s="2">
         <v>1</v>
       </c>
@@ -8778,7 +8778,7 @@
         <v>6.251716274071339E-6</v>
       </c>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A491" s="2">
         <v>1</v>
       </c>
@@ -8795,7 +8795,7 @@
         <v>8.4302131223992102E-6</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A492" s="2">
         <v>1</v>
       </c>
@@ -8812,7 +8812,7 @@
         <v>7.2360453421939724E-6</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A493" s="2">
         <v>1</v>
       </c>
@@ -8829,7 +8829,7 @@
         <v>9.3636188018062571E-6</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A494" s="2">
         <v>1</v>
       </c>
@@ -8846,7 +8846,7 @@
         <v>9.1995112373730763E-6</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A495" s="2">
         <v>1</v>
       </c>
@@ -8863,7 +8863,7 @@
         <v>8.0513517904719307E-6</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A496" s="2">
         <v>1</v>
       </c>
@@ -8880,7 +8880,7 @@
         <v>7.4857490703708349E-6</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A497" s="2">
         <v>1</v>
       </c>
@@ -8897,7 +8897,7 @@
         <v>7.0677850870464472E-6</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A498" s="2">
         <v>1</v>
       </c>
@@ -8914,7 +8914,7 @@
         <v>7.2682059574637874E-6</v>
       </c>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A499" s="2">
         <v>1</v>
       </c>
@@ -8931,7 +8931,7 @@
         <v>7.3835784660363931E-6</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A500" s="2">
         <v>1</v>
       </c>
@@ -8948,7 +8948,7 @@
         <v>7.7685504304213815E-6</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A501" s="2">
         <v>1</v>
       </c>
@@ -8965,7 +8965,7 @@
         <v>7.3258922117500903E-6</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A502" s="2">
         <v>1</v>
       </c>
@@ -8982,7 +8982,7 @@
         <v>8.1085988968122876E-6</v>
       </c>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A503" s="2">
         <v>1</v>
       </c>
@@ -8999,7 +8999,7 @@
         <v>8.1493186057202665E-6</v>
       </c>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A504" s="2">
         <v>1</v>
       </c>
@@ -9016,7 +9016,7 @@
         <v>8.1289587512662771E-6</v>
       </c>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A505" s="2">
         <v>1</v>
       </c>
@@ -9033,7 +9033,7 @@
         <v>7.3572545816667938E-6</v>
       </c>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A506">
         <v>2</v>
       </c>
@@ -9050,7 +9050,7 @@
         <v>6.7298855371199035E-6</v>
       </c>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A507">
         <v>2</v>
       </c>
@@ -9067,7 +9067,7 @@
         <v>5.1410376185585093E-6</v>
       </c>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A508">
         <v>2</v>
       </c>
@@ -9084,7 +9084,7 @@
         <v>4.9475946510476863E-6</v>
       </c>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A509">
         <v>2</v>
       </c>
@@ -9101,7 +9101,7 @@
         <v>6.7298855371199035E-6</v>
       </c>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A510">
         <v>2</v>
       </c>
@@ -9118,7 +9118,7 @@
         <v>6.0192723853438058E-6</v>
       </c>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A511">
         <v>2</v>
       </c>
@@ -9135,7 +9135,7 @@
         <v>7.3286352330292699E-6</v>
       </c>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A512">
         <v>2</v>
       </c>
@@ -9152,7 +9152,7 @@
         <v>7.2269753470870268E-6</v>
       </c>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A513">
         <v>2</v>
       </c>
@@ -9169,7 +9169,7 @@
         <v>6.3496688925788722E-6</v>
       </c>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A514">
         <v>2</v>
       </c>
@@ -9186,7 +9186,7 @@
         <v>6.1436034672732426E-6</v>
       </c>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A515">
         <v>2</v>
       </c>
@@ -9203,7 +9203,7 @@
         <v>5.6449258626419493E-6</v>
       </c>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A516">
         <v>2</v>
       </c>
@@ -9220,7 +9220,7 @@
         <v>5.8815666430774501E-6</v>
       </c>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A517">
         <v>2</v>
       </c>
@@ -9237,7 +9237,7 @@
         <v>5.8148224162066733E-6</v>
       </c>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A518">
         <v>2</v>
       </c>
@@ -9254,7 +9254,7 @@
         <v>6.2466361799260574E-6</v>
       </c>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A519">
         <v>2</v>
       </c>
@@ -9271,7 +9271,7 @@
         <v>5.8481945296420613E-6</v>
       </c>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A520">
         <v>2</v>
       </c>
@@ -9288,7 +9288,7 @@
         <v>6.2242853786833709E-6</v>
       </c>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A521">
         <v>2</v>
       </c>
@@ -9305,7 +9305,7 @@
         <v>6.2007285927289796E-6</v>
       </c>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A522">
         <v>2</v>
       </c>
@@ -9322,7 +9322,7 @@
         <v>6.2125069857061752E-6</v>
       </c>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A523">
         <v>2</v>
       </c>
@@ -9339,7 +9339,7 @@
         <v>5.7795055844801731E-6</v>
       </c>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A524">
         <v>27</v>
       </c>
@@ -9356,7 +9356,7 @@
         <v>3.1850885723955437E-5</v>
       </c>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A525">
         <v>27</v>
       </c>
@@ -9373,7 +9373,7 @@
         <v>2.2431234905486199E-5</v>
       </c>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A526">
         <v>27</v>
       </c>
@@ -9390,7 +9390,7 @@
         <v>2.2398099884319055E-5</v>
       </c>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A527">
         <v>27</v>
       </c>
@@ -9407,7 +9407,7 @@
         <v>3.1850885723955437E-5</v>
       </c>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A528">
         <v>27</v>
       </c>
@@ -9424,7 +9424,7 @@
         <v>2.6599682116152642E-5</v>
       </c>
     </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A529">
         <v>27</v>
       </c>
@@ -9441,7 +9441,7 @@
         <v>3.1894495782464287E-5</v>
       </c>
     </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A530">
         <v>27</v>
       </c>
@@ -9458,7 +9458,7 @@
         <v>3.1564509229044896E-5</v>
       </c>
     </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A531">
         <v>27</v>
       </c>
@@ -9475,7 +9475,7 @@
         <v>2.8253035862705037E-5</v>
       </c>
     </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A532">
         <v>27</v>
       </c>
@@ -9492,7 +9492,7 @@
         <v>2.5368603237139679E-5</v>
       </c>
     </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A533">
         <v>27</v>
       </c>
@@ -9509,7 +9509,7 @@
         <v>2.4260405406034011E-5</v>
       </c>
     </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A534">
         <v>27</v>
       </c>
@@ -9526,7 +9526,7 @@
         <v>2.4325583283609768E-5</v>
       </c>
     </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A535">
         <v>27</v>
       </c>
@@ -9543,7 +9543,7 @@
         <v>2.3553914778352172E-5</v>
       </c>
     </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A536">
         <v>27</v>
       </c>
@@ -9560,7 +9560,7 @@
         <v>2.6810819549922358E-5</v>
       </c>
     </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A537">
         <v>27</v>
       </c>
@@ -9577,7 +9577,7 @@
         <v>2.393974903098097E-5</v>
       </c>
     </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A538">
         <v>27</v>
       </c>
@@ -9594,7 +9594,7 @@
         <v>2.5205467436629053E-5</v>
       </c>
     </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A539">
         <v>27</v>
       </c>
@@ -9611,7 +9611,7 @@
         <v>2.4933113846538137E-5</v>
       </c>
     </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A540">
         <v>27</v>
       </c>
@@ -9628,7 +9628,7 @@
         <v>2.5069290641583595E-5</v>
       </c>
     </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A541">
         <v>27</v>
       </c>
@@ -9645,7 +9645,7 @@
         <v>2.4050694437727976E-5</v>
       </c>
     </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A542">
         <v>11</v>
       </c>
@@ -9662,7 +9662,7 @@
         <v>2.189888156789927E-5</v>
       </c>
     </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A543">
         <v>11</v>
       </c>
@@ -9679,7 +9679,7 @@
         <v>1.718063493043612E-5</v>
       </c>
     </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A544">
         <v>11</v>
       </c>
@@ -9696,7 +9696,7 @@
         <v>1.8412438240471933E-5</v>
       </c>
     </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A545">
         <v>11</v>
       </c>
@@ -9713,7 +9713,7 @@
         <v>2.189888156789927E-5</v>
       </c>
     </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A546">
         <v>11</v>
       </c>
@@ -9730,7 +9730,7 @@
         <v>1.9057698219812887E-5</v>
       </c>
     </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A547">
         <v>11</v>
       </c>
@@ -9747,7 +9747,7 @@
         <v>2.2705979217253815E-5</v>
       </c>
     </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A548">
         <v>11</v>
       </c>
@@ -9764,7 +9764,7 @@
         <v>2.2618025112701729E-5</v>
       </c>
     </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A549">
         <v>11</v>
       </c>
@@ -9781,7 +9781,7 @@
         <v>1.9822527132888603E-5</v>
       </c>
     </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A550">
         <v>11</v>
       </c>
@@ -9798,7 +9798,7 @@
         <v>1.8594509019206646E-5</v>
       </c>
     </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A551">
         <v>11</v>
       </c>
@@ -9815,7 +9815,7 @@
         <v>1.8157162253606549E-5</v>
       </c>
     </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A552">
         <v>11</v>
       </c>
@@ -9832,7 +9832,7 @@
         <v>1.8124032343917256E-5</v>
       </c>
     </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A553">
         <v>11</v>
       </c>
@@ -9849,7 +9849,7 @@
         <v>1.8083394696972496E-5</v>
       </c>
     </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A554">
         <v>11</v>
       </c>
@@ -9866,7 +9866,7 @@
         <v>1.9208518076047621E-5</v>
       </c>
     </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A555">
         <v>11</v>
       </c>
@@ -9883,7 +9883,7 @@
         <v>1.8103713520444876E-5</v>
       </c>
     </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A556">
         <v>11</v>
       </c>
@@ -9900,7 +9900,7 @@
         <v>1.9576225404266629E-5</v>
       </c>
     </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A557">
         <v>11</v>
       </c>
@@ -9917,7 +9917,7 @@
         <v>1.9561882705344949E-5</v>
       </c>
     </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A558">
         <v>11</v>
       </c>
@@ -9934,7 +9934,7 @@
         <v>1.9569054054805789E-5</v>
       </c>
     </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A559">
         <v>11</v>
       </c>
@@ -9951,7 +9951,7 @@
         <v>1.8629514021905743E-5</v>
       </c>
     </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A560">
         <v>3</v>
       </c>
@@ -9968,7 +9968,7 @@
         <v>1.39549845309933E-5</v>
       </c>
     </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A561">
         <v>3</v>
       </c>
@@ -9985,7 +9985,7 @@
         <v>1.1308941386754151E-5</v>
       </c>
     </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A562">
         <v>3</v>
       </c>
@@ -10002,7 +10002,7 @@
         <v>1.0750911133656333E-5</v>
       </c>
     </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A563">
         <v>3</v>
       </c>
@@ -10019,7 +10019,7 @@
         <v>1.39549845309933E-5</v>
       </c>
     </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A564">
         <v>3</v>
       </c>
@@ -10036,7 +10036,7 @@
         <v>1.4137311085856463E-5</v>
       </c>
     </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A565">
         <v>3</v>
       </c>
@@ -10053,7 +10053,7 @@
         <v>1.9763082987474647E-5</v>
       </c>
     </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A566">
         <v>3</v>
       </c>
@@ -10070,7 +10070,7 @@
         <v>1.9260565296098501E-5</v>
       </c>
     </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A567">
         <v>3</v>
       </c>
@@ -10087,7 +10087,7 @@
         <v>1.395447648335892E-5</v>
       </c>
     </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A568">
         <v>3</v>
       </c>
@@ -10104,7 +10104,7 @@
         <v>1.4739858316191756E-5</v>
       </c>
     </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A569">
         <v>3</v>
       </c>
@@ -10121,7 +10121,7 @@
         <v>1.3198357673005915E-5</v>
       </c>
     </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A570">
         <v>3</v>
       </c>
@@ -10138,7 +10138,7 @@
         <v>1.6185889392931571E-5</v>
       </c>
     </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A571">
         <v>3</v>
       </c>
@@ -10155,7 +10155,7 @@
         <v>1.6152536609897048E-5</v>
       </c>
     </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A572">
         <v>3</v>
       </c>
@@ -10172,7 +10172,7 @@
         <v>1.4347167399775336E-5</v>
       </c>
     </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A573">
         <v>3</v>
       </c>
@@ -10189,7 +10189,7 @@
         <v>1.6169213001414311E-5</v>
       </c>
     </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A574">
         <v>3</v>
       </c>
@@ -10206,7 +10206,7 @@
         <v>1.5946756404149564E-5</v>
       </c>
     </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A575">
         <v>3</v>
       </c>
@@ -10223,7 +10223,7 @@
         <v>1.5934984833666793E-5</v>
       </c>
     </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A576">
         <v>3</v>
       </c>
@@ -10240,7 +10240,7 @@
         <v>1.5940870618908177E-5</v>
       </c>
     </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A577">
         <v>3</v>
       </c>
@@ -10257,7 +10257,7 @@
         <v>1.6172059791656303E-5</v>
       </c>
     </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A578">
         <v>4</v>
       </c>
@@ -10274,7 +10274,7 @@
         <v>1.9090430479586705E-5</v>
       </c>
     </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A579">
         <v>4</v>
       </c>
@@ -10291,7 +10291,7 @@
         <v>1.6126623163692314E-5</v>
       </c>
     </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A580">
         <v>4</v>
       </c>
@@ -10308,7 +10308,7 @@
         <v>1.5574873651913746E-5</v>
       </c>
     </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A581">
         <v>4</v>
       </c>
@@ -10325,7 +10325,7 @@
         <v>1.9090430479586705E-5</v>
       </c>
     </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A582">
         <v>4</v>
       </c>
@@ -10342,7 +10342,7 @@
         <v>1.7943716201893233E-5</v>
       </c>
     </row>
-    <row r="583" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A583">
         <v>4</v>
       </c>
@@ -10359,7 +10359,7 @@
         <v>2.2112071783511255E-5</v>
       </c>
     </row>
-    <row r="584" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A584">
         <v>4</v>
       </c>
@@ -10376,7 +10376,7 @@
         <v>2.1642933148291091E-5</v>
       </c>
     </row>
-    <row r="585" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A585">
         <v>4</v>
       </c>
@@ -10393,7 +10393,7 @@
         <v>1.9062783921692844E-5</v>
       </c>
     </row>
-    <row r="586" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A586">
         <v>4</v>
       </c>
@@ -10410,7 +10410,7 @@
         <v>1.9059489035911916E-5</v>
       </c>
     </row>
-    <row r="587" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A587">
         <v>4</v>
       </c>
@@ -10427,7 +10427,7 @@
         <v>1.7310657600775413E-5</v>
       </c>
     </row>
-    <row r="588" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A588">
         <v>4</v>
       </c>
@@ -10444,7 +10444,7 @@
         <v>1.7789745857270967E-5</v>
       </c>
     </row>
-    <row r="589" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A589">
         <v>4</v>
       </c>
@@ -10461,7 +10461,7 @@
         <v>1.7873740807789474E-5</v>
       </c>
     </row>
-    <row r="590" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A590">
         <v>4</v>
       </c>
@@ -10478,7 +10478,7 @@
         <v>1.9061136478802383E-5</v>
       </c>
     </row>
-    <row r="591" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A591">
         <v>4</v>
       </c>
@@ -10495,7 +10495,7 @@
         <v>1.7831743332530222E-5</v>
       </c>
     </row>
-    <row r="592" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A592">
         <v>4</v>
       </c>
@@ -10512,7 +10512,7 @@
         <v>1.9098124407089491E-5</v>
       </c>
     </row>
-    <row r="593" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A593">
         <v>4</v>
       </c>
@@ -10529,7 +10529,7 @@
         <v>1.9127769683743083E-5</v>
       </c>
     </row>
-    <row r="594" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A594">
         <v>4</v>
       </c>
@@ -10546,7 +10546,7 @@
         <v>1.9112947045416287E-5</v>
       </c>
     </row>
-    <row r="595" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A595">
         <v>4</v>
       </c>
@@ -10563,7 +10563,7 @@
         <v>1.8035849449024056E-5</v>
       </c>
     </row>
-    <row r="596" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A596">
         <v>6</v>
       </c>
@@ -10580,7 +10580,7 @@
         <v>7.9286035535333007E-6</v>
       </c>
     </row>
-    <row r="597" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A597">
         <v>6</v>
       </c>
@@ -10597,7 +10597,7 @@
         <v>6.0456170786395807E-6</v>
       </c>
     </row>
-    <row r="598" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A598">
         <v>6</v>
       </c>
@@ -10614,7 +10614,7 @@
         <v>5.7283699551801347E-6</v>
       </c>
     </row>
-    <row r="599" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A599">
         <v>6</v>
       </c>
@@ -10631,7 +10631,7 @@
         <v>7.9286035535333007E-6</v>
       </c>
     </row>
-    <row r="600" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A600">
         <v>6</v>
       </c>
@@ -10648,7 +10648,7 @@
         <v>6.2001300463114516E-6</v>
       </c>
     </row>
-    <row r="601" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A601">
         <v>6</v>
       </c>
@@ -10665,7 +10665,7 @@
         <v>7.5639537073725003E-6</v>
       </c>
     </row>
-    <row r="602" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A602">
         <v>6</v>
       </c>
@@ -10682,7 +10682,7 @@
         <v>7.4477496555779247E-6</v>
       </c>
     </row>
-    <row r="603" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A603">
         <v>6</v>
       </c>
@@ -10699,7 +10699,7 @@
         <v>7.3385911646681625E-6</v>
       </c>
     </row>
-    <row r="604" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A604">
         <v>6</v>
       </c>
@@ -10716,7 +10716,7 @@
         <v>6.5396459696799331E-6</v>
       </c>
     </row>
-    <row r="605" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A605">
         <v>6</v>
       </c>
@@ -10733,7 +10733,7 @@
         <v>6.2176132611602723E-6</v>
       </c>
     </row>
-    <row r="606" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A606">
         <v>6</v>
       </c>
@@ -10750,7 +10750,7 @@
         <v>5.865595463134444E-6</v>
       </c>
     </row>
-    <row r="607" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A607">
         <v>6</v>
       </c>
@@ -10767,7 +10767,7 @@
         <v>6.0578767001629918E-6</v>
       </c>
     </row>
-    <row r="608" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A608">
         <v>6</v>
       </c>
@@ -10784,7 +10784,7 @@
         <v>6.9391185671740478E-6</v>
       </c>
     </row>
-    <row r="609" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A609">
         <v>6</v>
       </c>
@@ -10801,7 +10801,7 @@
         <v>5.9617360816487179E-6</v>
       </c>
     </row>
-    <row r="610" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A610">
         <v>6</v>
       </c>
@@ -10818,7 +10818,7 @@
         <v>6.4739390002454346E-6</v>
       </c>
     </row>
-    <row r="611" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A611">
         <v>6</v>
       </c>
@@ -10835,7 +10835,7 @@
         <v>6.5418029662555106E-6</v>
       </c>
     </row>
-    <row r="612" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A612">
         <v>6</v>
       </c>
@@ -10852,7 +10852,7 @@
         <v>6.507870983250473E-6</v>
       </c>
     </row>
-    <row r="613" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A613">
         <v>6</v>
       </c>
@@ -10869,7 +10869,7 @@
         <v>6.1224098794367827E-6</v>
       </c>
     </row>
-    <row r="614" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A614">
         <v>7</v>
       </c>
@@ -10886,7 +10886,7 @@
         <v>1.9214066503902255E-5</v>
       </c>
     </row>
-    <row r="615" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A615">
         <v>7</v>
       </c>
@@ -10903,7 +10903,7 @@
         <v>1.1916120726770307E-5</v>
       </c>
     </row>
-    <row r="616" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A616">
         <v>7</v>
       </c>
@@ -10920,7 +10920,7 @@
         <v>1.1623953386868798E-5</v>
       </c>
     </row>
-    <row r="617" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A617">
         <v>7</v>
       </c>
@@ -10937,7 +10937,7 @@
         <v>1.9214066503902255E-5</v>
       </c>
     </row>
-    <row r="618" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A618">
         <v>7</v>
       </c>
@@ -10954,7 +10954,7 @@
         <v>1.5577271660280697E-5</v>
       </c>
     </row>
-    <row r="619" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A619">
         <v>7</v>
       </c>
@@ -10971,7 +10971,7 @@
         <v>1.9674366756524688E-5</v>
       </c>
     </row>
-    <row r="620" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A620">
         <v>7</v>
       </c>
@@ -10988,7 +10988,7 @@
         <v>1.9364994246921138E-5</v>
       </c>
     </row>
-    <row r="621" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A621">
         <v>7</v>
       </c>
@@ -11005,7 +11005,7 @@
         <v>1.6379104426259351E-5</v>
       </c>
     </row>
-    <row r="622" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A622">
         <v>7</v>
       </c>
@@ -11022,7 +11022,7 @@
         <v>1.4010338369125684E-5</v>
       </c>
     </row>
-    <row r="623" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A623">
         <v>7</v>
       </c>
@@ -11039,7 +11039,7 @@
         <v>1.3452376765465849E-5</v>
       </c>
     </row>
-    <row r="624" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A624">
         <v>7</v>
       </c>
@@ -11056,7 +11056,7 @@
         <v>1.4504074008041671E-5</v>
       </c>
     </row>
-    <row r="625" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A625">
         <v>7</v>
       </c>
@@ -11073,7 +11073,7 @@
         <v>1.3633578495539117E-5</v>
       </c>
     </row>
-    <row r="626" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A626">
         <v>7</v>
       </c>
@@ -11090,7 +11090,7 @@
         <v>1.5194721397692519E-5</v>
       </c>
     </row>
-    <row r="627" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A627">
         <v>7</v>
       </c>
@@ -11107,7 +11107,7 @@
         <v>1.4068826251790394E-5</v>
       </c>
     </row>
-    <row r="628" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A628">
         <v>7</v>
       </c>
@@ -11124,7 +11124,7 @@
         <v>1.6667882529602181E-5</v>
       </c>
     </row>
-    <row r="629" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A629">
         <v>7</v>
       </c>
@@ -11141,7 +11141,7 @@
         <v>1.6360648819307162E-5</v>
       </c>
     </row>
-    <row r="630" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A630">
         <v>7</v>
       </c>
@@ -11158,7 +11158,7 @@
         <v>1.6514265674454673E-5</v>
       </c>
     </row>
-    <row r="631" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A631">
         <v>7</v>
       </c>
@@ -11175,7 +11175,7 @@
         <v>1.3669600169355358E-5</v>
       </c>
     </row>
-    <row r="632" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A632">
         <v>9</v>
       </c>
@@ -11192,7 +11192,7 @@
         <v>9.1240234512129727E-6</v>
       </c>
     </row>
-    <row r="633" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A633">
         <v>9</v>
       </c>
@@ -11209,7 +11209,7 @@
         <v>8.3193336727828019E-6</v>
       </c>
     </row>
-    <row r="634" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A634">
         <v>9</v>
       </c>
@@ -11226,7 +11226,7 @@
         <v>8.1191997819680833E-6</v>
       </c>
     </row>
-    <row r="635" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A635">
         <v>9</v>
       </c>
@@ -11243,7 +11243,7 @@
         <v>9.1240234512129727E-6</v>
       </c>
     </row>
-    <row r="636" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A636">
         <v>9</v>
       </c>
@@ -11260,7 +11260,7 @@
         <v>8.4681549389366019E-6</v>
       </c>
     </row>
-    <row r="637" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A637">
         <v>9</v>
       </c>
@@ -11277,7 +11277,7 @@
         <v>1.0044788477038535E-5</v>
       </c>
     </row>
-    <row r="638" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A638">
         <v>9</v>
       </c>
@@ -11294,7 +11294,7 @@
         <v>9.9420098826647065E-6</v>
       </c>
     </row>
-    <row r="639" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A639">
         <v>9</v>
       </c>
@@ -11311,7 +11311,7 @@
         <v>8.8983472142688148E-6</v>
       </c>
     </row>
-    <row r="640" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A640">
         <v>9</v>
       </c>
@@ -11328,7 +11328,7 @@
         <v>8.8824285466004674E-6</v>
       </c>
     </row>
-    <row r="641" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A641">
         <v>9</v>
       </c>
@@ -11345,7 +11345,7 @@
         <v>8.5364367468469273E-6</v>
       </c>
     </row>
-    <row r="642" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A642">
         <v>9</v>
       </c>
@@ -11362,7 +11362,7 @@
         <v>8.6504743018156456E-6</v>
       </c>
     </row>
-    <row r="643" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A643">
         <v>9</v>
       </c>
@@ -11379,7 +11379,7 @@
         <v>8.8984445099602107E-6</v>
       </c>
     </row>
-    <row r="644" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A644">
         <v>9</v>
       </c>
@@ -11396,7 +11396,7 @@
         <v>8.8903878804346411E-6</v>
       </c>
     </row>
-    <row r="645" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A645">
         <v>9</v>
       </c>
@@ -11413,7 +11413,7 @@
         <v>8.7744594058879273E-6</v>
       </c>
     </row>
-    <row r="646" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A646">
         <v>9</v>
       </c>
@@ -11430,7 +11430,7 @@
         <v>8.8144440580743375E-6</v>
       </c>
     </row>
-    <row r="647" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A647">
         <v>9</v>
       </c>
@@ -11447,7 +11447,7 @@
         <v>8.9019629550665396E-6</v>
       </c>
     </row>
-    <row r="648" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A648">
         <v>9</v>
       </c>
@@ -11464,7 +11464,7 @@
         <v>8.8582035065704385E-6</v>
       </c>
     </row>
-    <row r="649" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A649">
         <v>9</v>
       </c>
@@ -11481,7 +11481,7 @@
         <v>8.7953463886740794E-6</v>
       </c>
     </row>
-    <row r="650" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A650">
         <v>10</v>
       </c>
@@ -11498,7 +11498,7 @@
         <v>8.8485283453667745E-6</v>
       </c>
     </row>
-    <row r="651" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A651">
         <v>10</v>
       </c>
@@ -11515,7 +11515,7 @@
         <v>7.3727419140295055E-6</v>
       </c>
     </row>
-    <row r="652" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A652">
         <v>10</v>
       </c>
@@ -11532,7 +11532,7 @@
         <v>7.1306081597613391E-6</v>
       </c>
     </row>
-    <row r="653" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A653">
         <v>10</v>
       </c>
@@ -11549,7 +11549,7 @@
         <v>8.8485283453667745E-6</v>
       </c>
     </row>
-    <row r="654" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A654">
         <v>10</v>
       </c>
@@ -11566,7 +11566,7 @@
         <v>8.079989678821122E-6</v>
       </c>
     </row>
-    <row r="655" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A655">
         <v>10</v>
       </c>
@@ -11583,7 +11583,7 @@
         <v>1.0291213363369753E-5</v>
       </c>
     </row>
-    <row r="656" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A656">
         <v>10</v>
       </c>
@@ -11600,7 +11600,7 @@
         <v>1.0160648797108067E-5</v>
       </c>
     </row>
-    <row r="657" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A657">
         <v>10</v>
       </c>
@@ -11617,7 +11617,7 @@
         <v>8.4648201873727228E-6</v>
       </c>
     </row>
-    <row r="658" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A658">
         <v>10</v>
       </c>
@@ -11634,7 +11634,7 @@
         <v>8.207614104215721E-6</v>
       </c>
     </row>
-    <row r="659" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A659">
         <v>10</v>
       </c>
@@ -11651,7 +11651,7 @@
         <v>7.8055148722883374E-6</v>
       </c>
     </row>
-    <row r="660" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A660">
         <v>10</v>
       </c>
@@ -11668,7 +11668,7 @@
         <v>8.4396285884684486E-6</v>
       </c>
     </row>
-    <row r="661" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A661">
         <v>10</v>
       </c>
@@ -11685,7 +11685,7 @@
         <v>8.5011509227900857E-6</v>
       </c>
     </row>
-    <row r="662" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A662">
         <v>10</v>
       </c>
@@ -11702,7 +11702,7 @@
         <v>8.3362171457942227E-6</v>
       </c>
     </row>
-    <row r="663" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A663">
         <v>10</v>
       </c>
@@ -11719,7 +11719,7 @@
         <v>8.4703897556292672E-6</v>
       </c>
     </row>
-    <row r="664" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A664">
         <v>10</v>
       </c>
@@ -11736,7 +11736,7 @@
         <v>8.9981529776139452E-6</v>
       </c>
     </row>
-    <row r="665" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A665">
         <v>10</v>
       </c>
@@ -11753,7 +11753,7 @@
         <v>9.0198667426686407E-6</v>
       </c>
     </row>
-    <row r="666" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A666">
         <v>10</v>
       </c>
@@ -11770,7 +11770,7 @@
         <v>9.0090098601412913E-6</v>
       </c>
     </row>
-    <row r="667" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A667">
         <v>10</v>
       </c>
@@ -11787,7 +11787,7 @@
         <v>8.5895005510194873E-6</v>
       </c>
     </row>
-    <row r="668" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A668">
         <v>5</v>
       </c>
@@ -11804,7 +11804,7 @@
         <v>1.1487238895143944E-5</v>
       </c>
     </row>
-    <row r="669" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A669">
         <v>5</v>
       </c>
@@ -11821,7 +11821,7 @@
         <v>1.0158924761067983E-5</v>
       </c>
     </row>
-    <row r="670" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A670">
         <v>5</v>
       </c>
@@ -11838,7 +11838,7 @@
         <v>9.7579773759182779E-6</v>
       </c>
     </row>
-    <row r="671" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A671">
         <v>5</v>
       </c>
@@ -11855,7 +11855,7 @@
         <v>1.1487238895143944E-5</v>
       </c>
     </row>
-    <row r="672" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A672">
         <v>5</v>
       </c>
@@ -11872,7 +11872,7 @@
         <v>1.0338446501748277E-5</v>
       </c>
     </row>
-    <row r="673" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A673">
         <v>5</v>
       </c>
@@ -11889,7 +11889,7 @@
         <v>1.2197742456679535E-5</v>
       </c>
     </row>
-    <row r="674" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A674">
         <v>5</v>
       </c>
@@ -11906,7 +11906,7 @@
         <v>1.2034441015183926E-5</v>
       </c>
     </row>
-    <row r="675" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A675">
         <v>5</v>
       </c>
@@ -11923,7 +11923,7 @@
         <v>1.1281703337024141E-5</v>
       </c>
     </row>
-    <row r="676" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A676">
         <v>5</v>
       </c>
@@ -11940,7 +11940,7 @@
         <v>1.0892701742499806E-5</v>
       </c>
     </row>
-    <row r="677" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A677">
         <v>5</v>
       </c>
@@ -11957,7 +11957,7 @@
         <v>1.0381840911205318E-5</v>
       </c>
     </row>
-    <row r="678" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A678">
         <v>5</v>
       </c>
@@ -11974,7 +11974,7 @@
         <v>1.0576560038203112E-5</v>
       </c>
     </row>
-    <row r="679" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A679">
         <v>5</v>
       </c>
@@ -11991,7 +11991,7 @@
         <v>1.0816179896409534E-5</v>
       </c>
     </row>
-    <row r="680" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A680">
         <v>5</v>
       </c>
@@ -12008,7 +12008,7 @@
         <v>1.1087202539761973E-5</v>
       </c>
     </row>
-    <row r="681" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A681">
         <v>5</v>
       </c>
@@ -12025,7 +12025,7 @@
         <v>1.0696369967306325E-5</v>
       </c>
     </row>
-    <row r="682" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A682">
         <v>5</v>
       </c>
@@ -12042,7 +12042,7 @@
         <v>1.0975055800315095E-5</v>
       </c>
     </row>
-    <row r="683" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A683">
         <v>5</v>
       </c>
@@ -12059,7 +12059,7 @@
         <v>1.1059627514976185E-5</v>
       </c>
     </row>
-    <row r="684" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A684">
         <v>5</v>
       </c>
@@ -12076,7 +12076,7 @@
         <v>1.1017341657645639E-5</v>
       </c>
     </row>
-    <row r="685" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A685">
         <v>5</v>
       </c>
@@ -12093,7 +12093,7 @@
         <v>1.0759932094069888E-5</v>
       </c>
     </row>
-    <row r="686" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A686">
         <v>8</v>
       </c>
@@ -12110,7 +12110,7 @@
         <v>1.8741956180666931E-5</v>
       </c>
     </row>
-    <row r="687" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A687">
         <v>8</v>
       </c>
@@ -12127,7 +12127,7 @@
         <v>1.4177889462640605E-5</v>
       </c>
     </row>
-    <row r="688" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A688">
         <v>8</v>
       </c>
@@ -12144,7 +12144,7 @@
         <v>1.3092564167166874E-5</v>
       </c>
     </row>
-    <row r="689" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A689">
         <v>8</v>
       </c>
@@ -12161,7 +12161,7 @@
         <v>1.8741956180666931E-5</v>
       </c>
     </row>
-    <row r="690" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A690">
         <v>8</v>
       </c>
@@ -12178,7 +12178,7 @@
         <v>1.6664417294358449E-5</v>
       </c>
     </row>
-    <row r="691" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A691">
         <v>8</v>
       </c>
@@ -12195,7 +12195,7 @@
         <v>2.3633803304332408E-5</v>
       </c>
     </row>
-    <row r="692" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A692">
         <v>8</v>
       </c>
@@ -12212,7 +12212,7 @@
         <v>2.3102633666356508E-5</v>
       </c>
     </row>
-    <row r="693" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A693">
         <v>8</v>
       </c>
@@ -12229,7 +12229,7 @@
         <v>1.6920015948171759E-5</v>
       </c>
     </row>
-    <row r="694" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A694">
         <v>8</v>
       </c>
@@ -12246,7 +12246,7 @@
         <v>1.5777360976630174E-5</v>
       </c>
     </row>
-    <row r="695" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A695">
         <v>8</v>
       </c>
@@ -12263,7 +12263,7 @@
         <v>1.530028590165618E-5</v>
       </c>
     </row>
-    <row r="696" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A696">
         <v>8</v>
       </c>
@@ -12280,7 +12280,7 @@
         <v>1.654899021285985E-5</v>
       </c>
     </row>
-    <row r="697" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A697">
         <v>8</v>
       </c>
@@ -12297,7 +12297,7 @@
         <v>1.6418790557372354E-5</v>
       </c>
     </row>
-    <row r="698" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A698">
         <v>8</v>
       </c>
@@ -12314,7 +12314,7 @@
         <v>1.634868846240097E-5</v>
       </c>
     </row>
-    <row r="699" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A699">
         <v>8</v>
       </c>
@@ -12331,7 +12331,7 @@
         <v>1.6483890385116102E-5</v>
       </c>
     </row>
-    <row r="700" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A700">
         <v>8</v>
       </c>
@@ -12348,7 +12348,7 @@
         <v>2.1203476750292378E-5</v>
       </c>
     </row>
-    <row r="701" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A701">
         <v>8</v>
       </c>
@@ -12365,7 +12365,7 @@
         <v>2.1157523930708552E-5</v>
       </c>
     </row>
-    <row r="702" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A702">
         <v>8</v>
       </c>
@@ -12382,7 +12382,7 @@
         <v>2.1180500340500467E-5</v>
       </c>
     </row>
-    <row r="703" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A703">
         <v>8</v>
       </c>
@@ -12399,7 +12399,7 @@
         <v>1.6283337229243922E-5</v>
       </c>
     </row>
-    <row r="704" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A704">
         <v>12</v>
       </c>
@@ -12416,7 +12416,7 @@
         <v>2.4672584478622951E-5</v>
       </c>
     </row>
-    <row r="705" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A705">
         <v>12</v>
       </c>
@@ -12433,7 +12433,7 @@
         <v>1.6789823238803429E-5</v>
       </c>
     </row>
-    <row r="706" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A706">
         <v>12</v>
       </c>
@@ -12450,7 +12450,7 @@
         <v>1.6813014476507361E-5</v>
       </c>
     </row>
-    <row r="707" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A707">
         <v>12</v>
       </c>
@@ -12467,7 +12467,7 @@
         <v>2.4672584478622951E-5</v>
       </c>
     </row>
-    <row r="708" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A708">
         <v>12</v>
       </c>
@@ -12484,7 +12484,7 @@
         <v>2.0999915572444676E-5</v>
       </c>
     </row>
-    <row r="709" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A709">
         <v>12</v>
       </c>
@@ -12501,7 +12501,7 @@
         <v>2.9610268968105176E-5</v>
       </c>
     </row>
-    <row r="710" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A710">
         <v>12</v>
       </c>
@@ -12518,7 +12518,7 @@
         <v>2.878034321738976E-5</v>
       </c>
     </row>
-    <row r="711" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A711">
         <v>12</v>
       </c>
@@ -12535,7 +12535,7 @@
         <v>2.2243437914468959E-5</v>
       </c>
     </row>
-    <row r="712" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A712">
         <v>12</v>
       </c>
@@ -12552,7 +12552,7 @@
         <v>1.974655852694416E-5</v>
       </c>
     </row>
-    <row r="713" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A713">
         <v>12</v>
       </c>
@@ -12569,7 +12569,7 @@
         <v>1.8748229427450129E-5</v>
       </c>
     </row>
-    <row r="714" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A714">
         <v>12</v>
       </c>
@@ -12586,7 +12586,7 @@
         <v>2.0086185203147012E-5</v>
       </c>
     </row>
-    <row r="715" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A715">
         <v>12</v>
       </c>
@@ -12603,7 +12603,7 @@
         <v>1.949516673860655E-5</v>
       </c>
     </row>
-    <row r="716" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A716">
         <v>12</v>
       </c>
@@ -12620,7 +12620,7 @@
         <v>2.0994998220706556E-5</v>
       </c>
     </row>
-    <row r="717" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A717">
         <v>12</v>
       </c>
@@ -12637,7 +12637,7 @@
         <v>1.9790675970876782E-5</v>
       </c>
     </row>
-    <row r="718" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A718">
         <v>12</v>
       </c>
@@ -12654,7 +12654,7 @@
         <v>2.3310944772058627E-5</v>
       </c>
     </row>
-    <row r="719" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A719">
         <v>12</v>
       </c>
@@ -12671,7 +12671,7 @@
         <v>2.3102350019867877E-5</v>
       </c>
     </row>
-    <row r="720" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A720">
         <v>12</v>
       </c>
@@ -12688,7 +12688,7 @@
         <v>2.3206647395963252E-5</v>
       </c>
     </row>
-    <row r="721" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A721">
         <v>12</v>
       </c>
@@ -12705,7 +12705,7 @@
         <v>2.0000882860137886E-5</v>
       </c>
     </row>
-    <row r="722" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A722">
         <v>13</v>
       </c>
@@ -12722,7 +12722,7 @@
         <v>8.4662142270081201E-6</v>
       </c>
     </row>
-    <row r="723" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A723">
         <v>13</v>
       </c>
@@ -12739,7 +12739,7 @@
         <v>6.0843973862078384E-6</v>
       </c>
     </row>
-    <row r="724" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A724">
         <v>13</v>
       </c>
@@ -12756,7 +12756,7 @@
         <v>5.7789678333370079E-6</v>
       </c>
     </row>
-    <row r="725" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A725">
         <v>13</v>
       </c>
@@ -12773,7 +12773,7 @@
         <v>8.4662142270081201E-6</v>
       </c>
     </row>
-    <row r="726" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A726">
         <v>13</v>
       </c>
@@ -12790,7 +12790,7 @@
         <v>6.4465137525758392E-6</v>
       </c>
     </row>
-    <row r="727" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A727">
         <v>13</v>
       </c>
@@ -12807,7 +12807,7 @@
         <v>8.5316574274219298E-6</v>
       </c>
     </row>
-    <row r="728" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A728">
         <v>13</v>
       </c>
@@ -12824,7 +12824,7 @@
         <v>8.340110833289237E-6</v>
       </c>
     </row>
-    <row r="729" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A729">
         <v>13</v>
       </c>
@@ -12841,7 +12841,7 @@
         <v>7.6963826104369012E-6</v>
       </c>
     </row>
-    <row r="730" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A730">
         <v>13</v>
       </c>
@@ -12858,7 +12858,7 @@
         <v>6.7739256244826125E-6</v>
       </c>
     </row>
-    <row r="731" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A731">
         <v>13</v>
       </c>
@@ -12875,7 +12875,7 @@
         <v>6.3860844837516209E-6</v>
       </c>
     </row>
-    <row r="732" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A732">
         <v>13</v>
       </c>
@@ -12892,7 +12892,7 @@
         <v>6.5512651129693004E-6</v>
       </c>
     </row>
-    <row r="733" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A733">
         <v>13</v>
       </c>
@@ -12909,7 +12909,7 @@
         <v>6.7600628092935511E-6</v>
       </c>
     </row>
-    <row r="734" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A734">
         <v>13</v>
       </c>
@@ -12926,7 +12926,7 @@
         <v>7.235154117459756E-6</v>
       </c>
     </row>
-    <row r="735" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A735">
         <v>13</v>
       </c>
@@ -12943,7 +12943,7 @@
         <v>6.6556639611314253E-6</v>
       </c>
     </row>
-    <row r="736" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A736">
         <v>13</v>
       </c>
@@ -12960,7 +12960,7 @@
         <v>7.4050010340398872E-6</v>
       </c>
     </row>
-    <row r="737" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A737">
         <v>13</v>
       </c>
@@ -12977,7 +12977,7 @@
         <v>7.4786943386249168E-6</v>
       </c>
     </row>
-    <row r="738" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A738">
         <v>13</v>
       </c>
@@ -12994,7 +12994,7 @@
         <v>7.441847686332402E-6</v>
       </c>
     </row>
-    <row r="739" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A739">
         <v>13</v>
       </c>
@@ -13011,7 +13011,7 @@
         <v>6.7428886604348153E-6</v>
       </c>
     </row>
-    <row r="740" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A740">
         <v>14</v>
       </c>
@@ -13028,7 +13028,7 @@
         <v>1.2567500671365596E-5</v>
       </c>
     </row>
-    <row r="741" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A741">
         <v>14</v>
       </c>
@@ -13045,7 +13045,7 @@
         <v>1.1679808732125294E-5</v>
       </c>
     </row>
-    <row r="742" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A742">
         <v>14</v>
       </c>
@@ -13062,7 +13062,7 @@
         <v>1.1633626920661877E-5</v>
       </c>
     </row>
-    <row r="743" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A743">
         <v>14</v>
       </c>
@@ -13079,7 +13079,7 @@
         <v>1.2567500671365596E-5</v>
       </c>
     </row>
-    <row r="744" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A744">
         <v>14</v>
       </c>
@@ -13096,7 +13096,7 @@
         <v>1.2173091554548939E-5</v>
       </c>
     </row>
-    <row r="745" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A745">
         <v>14</v>
       </c>
@@ -13113,7 +13113,7 @@
         <v>1.4096547933753473E-5</v>
       </c>
     </row>
-    <row r="746" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A746">
         <v>14</v>
       </c>
@@ -13130,7 +13130,7 @@
         <v>1.3917230687270815E-5</v>
       </c>
     </row>
-    <row r="747" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A747">
         <v>14</v>
       </c>
@@ -13147,7 +13147,7 @@
         <v>1.2273912829864368E-5</v>
       </c>
     </row>
-    <row r="748" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A748">
         <v>14</v>
       </c>
@@ -13164,7 +13164,7 @@
         <v>1.2383279915973142E-5</v>
       </c>
     </row>
-    <row r="749" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A749">
         <v>14</v>
       </c>
@@ -13181,7 +13181,7 @@
         <v>1.2120006309401739E-5</v>
       </c>
     </row>
-    <row r="750" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A750">
         <v>14</v>
       </c>
@@ -13198,7 +13198,7 @@
         <v>1.1886537732242817E-5</v>
       </c>
     </row>
-    <row r="751" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A751">
         <v>14</v>
       </c>
@@ -13215,7 +13215,7 @@
         <v>1.2115350362571768E-5</v>
       </c>
     </row>
-    <row r="752" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A752">
         <v>14</v>
       </c>
@@ -13232,7 +13232,7 @@
         <v>1.2328596372918755E-5</v>
       </c>
     </row>
-    <row r="753" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A753">
         <v>14</v>
       </c>
@@ -13249,7 +13249,7 @@
         <v>1.2000944047407292E-5</v>
       </c>
     </row>
-    <row r="754" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A754">
         <v>14</v>
       </c>
@@ -13266,7 +13266,7 @@
         <v>1.2622325797725626E-5</v>
       </c>
     </row>
-    <row r="755" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A755">
         <v>14</v>
       </c>
@@ -13283,7 +13283,7 @@
         <v>1.2703083196665257E-5</v>
       </c>
     </row>
-    <row r="756" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A756">
         <v>14</v>
       </c>
@@ -13300,7 +13300,7 @@
         <v>1.2662704497195442E-5</v>
       </c>
     </row>
-    <row r="757" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A757">
         <v>14</v>
       </c>
@@ -13317,7 +13317,7 @@
         <v>1.2124179032490956E-5</v>
       </c>
     </row>
-    <row r="758" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A758">
         <v>15</v>
       </c>
@@ -13334,7 +13334,7 @@
         <v>2.303163945095687E-5</v>
       </c>
     </row>
-    <row r="759" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A759">
         <v>15</v>
       </c>
@@ -13351,7 +13351,7 @@
         <v>1.7117265881172594E-5</v>
       </c>
     </row>
-    <row r="760" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A760">
         <v>15</v>
       </c>
@@ -13368,7 +13368,7 @@
         <v>1.666320151040126E-5</v>
       </c>
     </row>
-    <row r="761" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A761">
         <v>15</v>
       </c>
@@ -13385,7 +13385,7 @@
         <v>2.303163945095687E-5</v>
       </c>
     </row>
-    <row r="762" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A762">
         <v>15</v>
       </c>
@@ -13402,7 +13402,7 @@
         <v>2.0355477860045409E-5</v>
       </c>
     </row>
-    <row r="763" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A763">
         <v>15</v>
       </c>
@@ -13419,7 +13419,7 @@
         <v>2.5192101002961568E-5</v>
       </c>
     </row>
-    <row r="764" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A764">
         <v>15</v>
       </c>
@@ -13436,7 +13436,7 @@
         <v>2.4634804664491924E-5</v>
       </c>
     </row>
-    <row r="765" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A765">
         <v>15</v>
       </c>
@@ -13453,7 +13453,7 @@
         <v>2.1424617095515729E-5</v>
       </c>
     </row>
-    <row r="766" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A766">
         <v>15</v>
       </c>
@@ -13470,7 +13470,7 @@
         <v>2.0854561844724761E-5</v>
       </c>
     </row>
-    <row r="767" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A767">
         <v>15</v>
       </c>
@@ -13487,7 +13487,7 @@
         <v>1.8973609422130316E-5</v>
       </c>
     </row>
-    <row r="768" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A768">
         <v>15</v>
       </c>
@@ -13504,7 +13504,7 @@
         <v>1.9081791631230019E-5</v>
       </c>
     </row>
-    <row r="769" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A769">
         <v>15</v>
       </c>
@@ -13521,7 +13521,7 @@
         <v>1.8902707608896614E-5</v>
       </c>
     </row>
-    <row r="770" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A770">
         <v>15</v>
       </c>
@@ -13538,7 +13538,7 @@
         <v>2.1139589470120243E-5</v>
       </c>
     </row>
-    <row r="771" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A771">
         <v>15</v>
       </c>
@@ -13555,7 +13555,7 @@
         <v>1.8992249620063315E-5</v>
       </c>
     </row>
-    <row r="772" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A772">
         <v>15</v>
       </c>
@@ -13572,7 +13572,7 @@
         <v>2.0783041384888013E-5</v>
       </c>
     </row>
-    <row r="773" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A773">
         <v>15</v>
       </c>
@@ -13589,7 +13589,7 @@
         <v>2.0719835259358575E-5</v>
       </c>
     </row>
-    <row r="774" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A774">
         <v>15</v>
       </c>
@@ -13606,7 +13606,7 @@
         <v>2.0751438322123292E-5</v>
       </c>
     </row>
-    <row r="775" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A775">
         <v>15</v>
       </c>
@@ -13623,7 +13623,7 @@
         <v>1.9048301224642805E-5</v>
       </c>
     </row>
-    <row r="776" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A776">
         <v>16</v>
       </c>
@@ -13640,7 +13640,7 @@
         <v>1.9282287037681536E-5</v>
       </c>
     </row>
-    <row r="777" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A777">
         <v>16</v>
       </c>
@@ -13657,7 +13657,7 @@
         <v>1.440864257505971E-5</v>
       </c>
     </row>
-    <row r="778" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A778">
         <v>16</v>
       </c>
@@ -13674,7 +13674,7 @@
         <v>1.3653430363141253E-5</v>
       </c>
     </row>
-    <row r="779" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A779">
         <v>16</v>
       </c>
@@ -13691,7 +13691,7 @@
         <v>1.9282287037681536E-5</v>
       </c>
     </row>
-    <row r="780" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A780">
         <v>16</v>
       </c>
@@ -13708,7 +13708,7 @@
         <v>1.7100617344653021E-5</v>
       </c>
     </row>
-    <row r="781" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A781">
         <v>16</v>
       </c>
@@ -13725,7 +13725,7 @@
         <v>2.3334686985152752E-5</v>
       </c>
     </row>
-    <row r="782" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A782">
         <v>16</v>
       </c>
@@ -13742,7 +13742,7 @@
         <v>2.2889804237779082E-5</v>
       </c>
     </row>
-    <row r="783" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A783">
         <v>16</v>
       </c>
@@ -13759,7 +13759,7 @@
         <v>1.7907677685523797E-5</v>
       </c>
     </row>
-    <row r="784" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A784">
         <v>16</v>
       </c>
@@ -13776,7 +13776,7 @@
         <v>1.7191362972309976E-5</v>
       </c>
     </row>
-    <row r="785" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A785">
         <v>16</v>
       </c>
@@ -13793,7 +13793,7 @@
         <v>1.5949944892153666E-5</v>
       </c>
     </row>
-    <row r="786" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A786">
         <v>16</v>
       </c>
@@ -13810,7 +13810,7 @@
         <v>1.5883322320373828E-5</v>
       </c>
     </row>
-    <row r="787" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A787">
         <v>16</v>
       </c>
@@ -13827,7 +13827,7 @@
         <v>1.5900205524823103E-5</v>
       </c>
     </row>
-    <row r="788" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A788">
         <v>16</v>
       </c>
@@ -13844,7 +13844,7 @@
         <v>1.7549520328916886E-5</v>
       </c>
     </row>
-    <row r="789" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A789">
         <v>16</v>
       </c>
@@ -13861,7 +13861,7 @@
         <v>1.5891763922598465E-5</v>
       </c>
     </row>
-    <row r="790" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A790">
         <v>16</v>
       </c>
@@ -13878,7 +13878,7 @@
         <v>2.1463979449525409E-5</v>
       </c>
     </row>
-    <row r="791" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A791">
         <v>16</v>
       </c>
@@ -13895,7 +13895,7 @@
         <v>2.1469938227566328E-5</v>
       </c>
     </row>
-    <row r="792" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A792">
         <v>16</v>
       </c>
@@ -13912,7 +13912,7 @@
         <v>2.1466958838545868E-5</v>
       </c>
     </row>
-    <row r="793" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A793">
         <v>16</v>
       </c>
@@ -13929,7 +13929,7 @@
         <v>1.6208156529869783E-5</v>
       </c>
     </row>
-    <row r="794" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A794">
         <v>17</v>
       </c>
@@ -13946,7 +13946,7 @@
         <v>6.7298855371199035E-6</v>
       </c>
     </row>
-    <row r="795" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A795">
         <v>17</v>
       </c>
@@ -13963,7 +13963,7 @@
         <v>5.1410376185585093E-6</v>
       </c>
     </row>
-    <row r="796" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A796">
         <v>17</v>
       </c>
@@ -13980,7 +13980,7 @@
         <v>4.9475946510476863E-6</v>
       </c>
     </row>
-    <row r="797" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A797">
         <v>17</v>
       </c>
@@ -13997,7 +13997,7 @@
         <v>6.7298855371199035E-6</v>
       </c>
     </row>
-    <row r="798" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A798">
         <v>17</v>
       </c>
@@ -14014,7 +14014,7 @@
         <v>6.0192723853438058E-6</v>
       </c>
     </row>
-    <row r="799" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A799">
         <v>17</v>
       </c>
@@ -14031,7 +14031,7 @@
         <v>7.3286352330292699E-6</v>
       </c>
     </row>
-    <row r="800" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A800">
         <v>17</v>
       </c>
@@ -14048,7 +14048,7 @@
         <v>7.2269753470870268E-6</v>
       </c>
     </row>
-    <row r="801" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A801">
         <v>17</v>
       </c>
@@ -14065,7 +14065,7 @@
         <v>6.3496688925788722E-6</v>
       </c>
     </row>
-    <row r="802" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A802">
         <v>17</v>
       </c>
@@ -14082,7 +14082,7 @@
         <v>6.1436034672732426E-6</v>
       </c>
     </row>
-    <row r="803" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A803">
         <v>17</v>
       </c>
@@ -14099,7 +14099,7 @@
         <v>5.6449258626419493E-6</v>
       </c>
     </row>
-    <row r="804" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A804">
         <v>17</v>
       </c>
@@ -14116,7 +14116,7 @@
         <v>5.8815666430774501E-6</v>
       </c>
     </row>
-    <row r="805" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A805">
         <v>17</v>
       </c>
@@ -14133,7 +14133,7 @@
         <v>5.8148224162066733E-6</v>
       </c>
     </row>
-    <row r="806" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A806">
         <v>17</v>
       </c>
@@ -14150,7 +14150,7 @@
         <v>6.2466361799260574E-6</v>
       </c>
     </row>
-    <row r="807" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A807">
         <v>17</v>
       </c>
@@ -14167,7 +14167,7 @@
         <v>5.8481945296420613E-6</v>
       </c>
     </row>
-    <row r="808" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A808">
         <v>17</v>
       </c>
@@ -14184,7 +14184,7 @@
         <v>6.2242853786833709E-6</v>
       </c>
     </row>
-    <row r="809" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A809">
         <v>17</v>
       </c>
@@ -14201,7 +14201,7 @@
         <v>6.2007285927289796E-6</v>
       </c>
     </row>
-    <row r="810" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A810">
         <v>17</v>
       </c>
@@ -14218,7 +14218,7 @@
         <v>6.2125069857061752E-6</v>
       </c>
     </row>
-    <row r="811" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A811">
         <v>17</v>
       </c>
@@ -14235,7 +14235,7 @@
         <v>5.7795055844801731E-6</v>
       </c>
     </row>
-    <row r="812" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A812">
         <v>18</v>
       </c>
@@ -14252,7 +14252,7 @@
         <v>1.39549845309933E-5</v>
       </c>
     </row>
-    <row r="813" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A813">
         <v>18</v>
       </c>
@@ -14269,7 +14269,7 @@
         <v>1.1308941386754151E-5</v>
       </c>
     </row>
-    <row r="814" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A814">
         <v>18</v>
       </c>
@@ -14286,7 +14286,7 @@
         <v>1.0750911133656333E-5</v>
       </c>
     </row>
-    <row r="815" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A815">
         <v>18</v>
       </c>
@@ -14303,7 +14303,7 @@
         <v>1.39549845309933E-5</v>
       </c>
     </row>
-    <row r="816" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A816">
         <v>18</v>
       </c>
@@ -14320,7 +14320,7 @@
         <v>1.4137311085856463E-5</v>
       </c>
     </row>
-    <row r="817" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A817">
         <v>18</v>
       </c>
@@ -14337,7 +14337,7 @@
         <v>1.9763082987474647E-5</v>
       </c>
     </row>
-    <row r="818" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A818">
         <v>18</v>
       </c>
@@ -14354,7 +14354,7 @@
         <v>1.9260565296098501E-5</v>
       </c>
     </row>
-    <row r="819" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A819">
         <v>18</v>
       </c>
@@ -14371,7 +14371,7 @@
         <v>1.395447648335892E-5</v>
       </c>
     </row>
-    <row r="820" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A820">
         <v>18</v>
       </c>
@@ -14388,7 +14388,7 @@
         <v>1.4739858316191756E-5</v>
       </c>
     </row>
-    <row r="821" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A821">
         <v>18</v>
       </c>
@@ -14405,7 +14405,7 @@
         <v>1.3198357673005915E-5</v>
       </c>
     </row>
-    <row r="822" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A822">
         <v>18</v>
       </c>
@@ -14422,7 +14422,7 @@
         <v>1.6185889392931571E-5</v>
       </c>
     </row>
-    <row r="823" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A823">
         <v>18</v>
       </c>
@@ -14439,7 +14439,7 @@
         <v>1.6152536609897048E-5</v>
       </c>
     </row>
-    <row r="824" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A824">
         <v>18</v>
       </c>
@@ -14456,7 +14456,7 @@
         <v>1.4347167399775336E-5</v>
       </c>
     </row>
-    <row r="825" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A825">
         <v>18</v>
       </c>
@@ -14473,7 +14473,7 @@
         <v>1.6169213001414311E-5</v>
       </c>
     </row>
-    <row r="826" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A826">
         <v>18</v>
       </c>
@@ -14490,7 +14490,7 @@
         <v>1.5946756404149564E-5</v>
       </c>
     </row>
-    <row r="827" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A827">
         <v>18</v>
       </c>
@@ -14507,7 +14507,7 @@
         <v>1.5934984833666793E-5</v>
       </c>
     </row>
-    <row r="828" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A828">
         <v>18</v>
       </c>
@@ -14524,7 +14524,7 @@
         <v>1.5940870618908177E-5</v>
       </c>
     </row>
-    <row r="829" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A829">
         <v>18</v>
       </c>
@@ -14541,7 +14541,7 @@
         <v>1.6172059791656303E-5</v>
       </c>
     </row>
-    <row r="830" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A830">
         <v>19</v>
       </c>
@@ -14558,7 +14558,7 @@
         <v>8.4662142270081201E-6</v>
       </c>
     </row>
-    <row r="831" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A831">
         <v>19</v>
       </c>
@@ -14575,7 +14575,7 @@
         <v>6.0843973862078384E-6</v>
       </c>
     </row>
-    <row r="832" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A832">
         <v>19</v>
       </c>
@@ -14592,7 +14592,7 @@
         <v>5.7789678333370079E-6</v>
       </c>
     </row>
-    <row r="833" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A833">
         <v>19</v>
       </c>
@@ -14609,7 +14609,7 @@
         <v>8.4662142270081201E-6</v>
       </c>
     </row>
-    <row r="834" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A834">
         <v>19</v>
       </c>
@@ -14626,7 +14626,7 @@
         <v>6.4465137525758392E-6</v>
       </c>
     </row>
-    <row r="835" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A835">
         <v>19</v>
       </c>
@@ -14643,7 +14643,7 @@
         <v>8.5316574274219298E-6</v>
       </c>
     </row>
-    <row r="836" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A836">
         <v>19</v>
       </c>
@@ -14660,7 +14660,7 @@
         <v>8.340110833289237E-6</v>
       </c>
     </row>
-    <row r="837" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A837">
         <v>19</v>
       </c>
@@ -14677,7 +14677,7 @@
         <v>7.6963826104369012E-6</v>
       </c>
     </row>
-    <row r="838" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A838">
         <v>19</v>
       </c>
@@ -14694,7 +14694,7 @@
         <v>6.7739256244826125E-6</v>
       </c>
     </row>
-    <row r="839" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A839">
         <v>19</v>
       </c>
@@ -14711,7 +14711,7 @@
         <v>6.3860844837516209E-6</v>
       </c>
     </row>
-    <row r="840" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A840">
         <v>19</v>
       </c>
@@ -14728,7 +14728,7 @@
         <v>6.5512651129693004E-6</v>
       </c>
     </row>
-    <row r="841" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A841">
         <v>19</v>
       </c>
@@ -14745,7 +14745,7 @@
         <v>6.7600628092935511E-6</v>
       </c>
     </row>
-    <row r="842" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A842">
         <v>19</v>
       </c>
@@ -14762,7 +14762,7 @@
         <v>7.235154117459756E-6</v>
       </c>
     </row>
-    <row r="843" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A843">
         <v>19</v>
       </c>
@@ -14779,7 +14779,7 @@
         <v>6.6556639611314253E-6</v>
       </c>
     </row>
-    <row r="844" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A844">
         <v>19</v>
       </c>
@@ -14796,7 +14796,7 @@
         <v>7.4050010340398872E-6</v>
       </c>
     </row>
-    <row r="845" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A845">
         <v>19</v>
       </c>
@@ -14813,7 +14813,7 @@
         <v>7.4786943386249168E-6</v>
       </c>
     </row>
-    <row r="846" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A846">
         <v>19</v>
       </c>
@@ -14830,7 +14830,7 @@
         <v>7.441847686332402E-6</v>
       </c>
     </row>
-    <row r="847" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A847">
         <v>19</v>
       </c>
@@ -14847,7 +14847,7 @@
         <v>6.7428886604348153E-6</v>
       </c>
     </row>
-    <row r="848" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A848">
         <v>20</v>
       </c>
@@ -14864,7 +14864,7 @@
         <v>2.0999199750523275E-5</v>
       </c>
     </row>
-    <row r="849" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A849">
         <v>20</v>
       </c>
@@ -14881,7 +14881,7 @@
         <v>1.6815588685205262E-5</v>
       </c>
     </row>
-    <row r="850" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A850">
         <v>20</v>
       </c>
@@ -14898,7 +14898,7 @@
         <v>1.5639392703561307E-5</v>
       </c>
     </row>
-    <row r="851" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A851">
         <v>20</v>
       </c>
@@ -14915,7 +14915,7 @@
         <v>2.0999199750523275E-5</v>
       </c>
     </row>
-    <row r="852" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A852">
         <v>20</v>
       </c>
@@ -14932,7 +14932,7 @@
         <v>1.8912381995934289E-5</v>
       </c>
     </row>
-    <row r="853" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A853">
         <v>20</v>
       </c>
@@ -14949,7 +14949,7 @@
         <v>2.3023309454626799E-5</v>
       </c>
     </row>
-    <row r="854" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A854">
         <v>20</v>
       </c>
@@ -14966,7 +14966,7 @@
         <v>2.3120180789313725E-5</v>
       </c>
     </row>
-    <row r="855" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A855">
         <v>20</v>
       </c>
@@ -14983,7 +14983,7 @@
         <v>1.9532116698692094E-5</v>
       </c>
     </row>
-    <row r="856" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A856">
         <v>20</v>
       </c>
@@ -15000,7 +15000,7 @@
         <v>1.8400226458741713E-5</v>
       </c>
     </row>
-    <row r="857" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A857">
         <v>20</v>
       </c>
@@ -15017,7 +15017,7 @@
         <v>1.7840560934054545E-5</v>
       </c>
     </row>
-    <row r="858" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A858">
         <v>20</v>
       </c>
@@ -15034,7 +15034,7 @@
         <v>1.8971329189711668E-5</v>
       </c>
     </row>
-    <row r="859" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A859">
         <v>20</v>
       </c>
@@ -15051,7 +15051,7 @@
         <v>1.8745013205628141E-5</v>
       </c>
     </row>
-    <row r="860" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A860">
         <v>20</v>
       </c>
@@ -15068,7 +15068,7 @@
         <v>1.8966171578716903E-5</v>
       </c>
     </row>
-    <row r="861" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A861">
         <v>20</v>
       </c>
@@ -15085,7 +15085,7 @@
         <v>1.8858171197669903E-5</v>
       </c>
     </row>
-    <row r="862" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A862">
         <v>20</v>
       </c>
@@ -15102,7 +15102,7 @@
         <v>2.0150798939432588E-5</v>
       </c>
     </row>
-    <row r="863" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A863">
         <v>20</v>
       </c>
@@ -15119,7 +15119,7 @@
         <v>2.0070922709756047E-5</v>
       </c>
     </row>
-    <row r="864" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A864">
         <v>20</v>
       </c>
@@ -15136,7 +15136,7 @@
         <v>2.0110860824594314E-5</v>
       </c>
     </row>
-    <row r="865" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A865">
         <v>20</v>
       </c>
@@ -15153,7 +15153,7 @@
         <v>1.8907949110693677E-5</v>
       </c>
     </row>
-    <row r="866" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A866">
         <v>21</v>
       </c>
@@ -15170,7 +15170,7 @@
         <v>1.8846035146362317E-5</v>
       </c>
     </row>
-    <row r="867" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A867">
         <v>21</v>
       </c>
@@ -15187,7 +15187,7 @@
         <v>1.4005794186527257E-5</v>
       </c>
     </row>
-    <row r="868" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A868">
         <v>21</v>
       </c>
@@ -15204,7 +15204,7 @@
         <v>1.3770473011638415E-5</v>
       </c>
     </row>
-    <row r="869" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A869">
         <v>21</v>
       </c>
@@ -15221,7 +15221,7 @@
         <v>1.8846035146362317E-5</v>
       </c>
     </row>
-    <row r="870" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A870">
         <v>21</v>
       </c>
@@ -15238,7 +15238,7 @@
         <v>1.6904250660716812E-5</v>
       </c>
     </row>
-    <row r="871" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A871">
         <v>21</v>
       </c>
@@ -15255,7 +15255,7 @@
         <v>2.1158623565068965E-5</v>
       </c>
     </row>
-    <row r="872" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A872">
         <v>21</v>
       </c>
@@ -15272,7 +15272,7 @@
         <v>2.1012117989437117E-5</v>
       </c>
     </row>
-    <row r="873" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A873">
         <v>21</v>
       </c>
@@ -15289,7 +15289,7 @@
         <v>1.6728810054529659E-5</v>
       </c>
     </row>
-    <row r="874" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A874">
         <v>21</v>
       </c>
@@ -15306,7 +15306,7 @@
         <v>1.5959550220542001E-5</v>
       </c>
     </row>
-    <row r="875" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A875">
         <v>21</v>
       </c>
@@ -15323,7 +15323,7 @@
         <v>1.5505519746820948E-5</v>
       </c>
     </row>
-    <row r="876" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A876">
         <v>21</v>
       </c>
@@ -15340,7 +15340,7 @@
         <v>1.6672256165199888E-5</v>
       </c>
     </row>
-    <row r="877" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A877">
         <v>21</v>
       </c>
@@ -15357,7 +15357,7 @@
         <v>1.6329666782468434E-5</v>
       </c>
     </row>
-    <row r="878" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A878">
         <v>21</v>
       </c>
@@ -15374,7 +15374,7 @@
         <v>1.6344180137535833E-5</v>
       </c>
     </row>
-    <row r="879" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A879">
         <v>21</v>
       </c>
@@ -15391,7 +15391,7 @@
         <v>1.6500961473834161E-5</v>
       </c>
     </row>
-    <row r="880" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A880">
         <v>21</v>
       </c>
@@ -15408,7 +15408,7 @@
         <v>1.8786608830653128E-5</v>
       </c>
     </row>
-    <row r="881" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A881">
         <v>21</v>
       </c>
@@ -15425,7 +15425,7 @@
         <v>1.8665694930865563E-5</v>
       </c>
     </row>
-    <row r="882" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A882">
         <v>21</v>
       </c>
@@ -15442,7 +15442,7 @@
         <v>1.8726151880759346E-5</v>
       </c>
     </row>
-    <row r="883" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A883">
         <v>21</v>
       </c>
@@ -15459,7 +15459,7 @@
         <v>1.6342968032312344E-5</v>
       </c>
     </row>
-    <row r="884" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A884">
         <v>26</v>
       </c>
@@ -15476,7 +15476,7 @@
         <v>3.1850885723955437E-5</v>
       </c>
     </row>
-    <row r="885" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A885">
         <v>26</v>
       </c>
@@ -15493,7 +15493,7 @@
         <v>2.2431234905486199E-5</v>
       </c>
     </row>
-    <row r="886" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A886">
         <v>26</v>
       </c>
@@ -15510,7 +15510,7 @@
         <v>2.2398099884319055E-5</v>
       </c>
     </row>
-    <row r="887" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A887">
         <v>26</v>
       </c>
@@ -15527,7 +15527,7 @@
         <v>3.1850885723955437E-5</v>
       </c>
     </row>
-    <row r="888" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A888">
         <v>26</v>
       </c>
@@ -15544,7 +15544,7 @@
         <v>2.6599682116152642E-5</v>
       </c>
     </row>
-    <row r="889" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A889">
         <v>26</v>
       </c>
@@ -15561,7 +15561,7 @@
         <v>3.1894495782464287E-5</v>
       </c>
     </row>
-    <row r="890" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A890">
         <v>26</v>
       </c>
@@ -15578,7 +15578,7 @@
         <v>3.1564509229044896E-5</v>
       </c>
     </row>
-    <row r="891" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A891">
         <v>26</v>
       </c>
@@ -15595,7 +15595,7 @@
         <v>2.8253035862705037E-5</v>
       </c>
     </row>
-    <row r="892" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A892">
         <v>26</v>
       </c>
@@ -15612,7 +15612,7 @@
         <v>2.5368603237139679E-5</v>
       </c>
     </row>
-    <row r="893" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A893">
         <v>26</v>
       </c>
@@ -15629,7 +15629,7 @@
         <v>2.4260405406034011E-5</v>
       </c>
     </row>
-    <row r="894" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A894">
         <v>26</v>
       </c>
@@ -15646,7 +15646,7 @@
         <v>2.4325583283609768E-5</v>
       </c>
     </row>
-    <row r="895" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A895">
         <v>26</v>
       </c>
@@ -15663,7 +15663,7 @@
         <v>2.3553914778352172E-5</v>
       </c>
     </row>
-    <row r="896" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A896">
         <v>26</v>
       </c>
@@ -15680,7 +15680,7 @@
         <v>2.6810819549922358E-5</v>
       </c>
     </row>
-    <row r="897" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A897">
         <v>26</v>
       </c>
@@ -15697,7 +15697,7 @@
         <v>2.393974903098097E-5</v>
       </c>
     </row>
-    <row r="898" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A898">
         <v>26</v>
       </c>
@@ -15714,7 +15714,7 @@
         <v>2.5205467436629053E-5</v>
       </c>
     </row>
-    <row r="899" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A899">
         <v>26</v>
       </c>
@@ -15731,7 +15731,7 @@
         <v>2.4933113846538137E-5</v>
       </c>
     </row>
-    <row r="900" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A900">
         <v>26</v>
       </c>
@@ -15748,7 +15748,7 @@
         <v>2.5069290641583595E-5</v>
       </c>
     </row>
-    <row r="901" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A901">
         <v>26</v>
       </c>
@@ -15765,7 +15765,7 @@
         <v>2.4050694437727976E-5</v>
       </c>
     </row>
-    <row r="902" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A902">
         <v>22</v>
       </c>
@@ -15782,7 +15782,7 @@
         <v>1.9090430479586705E-5</v>
       </c>
     </row>
-    <row r="903" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A903">
         <v>22</v>
       </c>
@@ -15799,7 +15799,7 @@
         <v>1.6126623163692314E-5</v>
       </c>
     </row>
-    <row r="904" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A904">
         <v>22</v>
       </c>
@@ -15816,7 +15816,7 @@
         <v>1.5574873651913746E-5</v>
       </c>
     </row>
-    <row r="905" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A905">
         <v>22</v>
       </c>
@@ -15833,7 +15833,7 @@
         <v>1.9090430479586705E-5</v>
       </c>
     </row>
-    <row r="906" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A906">
         <v>22</v>
       </c>
@@ -15850,7 +15850,7 @@
         <v>1.7943716201893233E-5</v>
       </c>
     </row>
-    <row r="907" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A907">
         <v>22</v>
       </c>
@@ -15867,7 +15867,7 @@
         <v>2.2112071783511255E-5</v>
       </c>
     </row>
-    <row r="908" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A908">
         <v>22</v>
       </c>
@@ -15884,7 +15884,7 @@
         <v>2.1642933148291091E-5</v>
       </c>
     </row>
-    <row r="909" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A909">
         <v>22</v>
       </c>
@@ -15901,7 +15901,7 @@
         <v>1.9062783921692844E-5</v>
       </c>
     </row>
-    <row r="910" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A910">
         <v>22</v>
       </c>
@@ -15918,7 +15918,7 @@
         <v>1.9059489035911916E-5</v>
       </c>
     </row>
-    <row r="911" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A911">
         <v>22</v>
       </c>
@@ -15935,7 +15935,7 @@
         <v>1.7310657600775413E-5</v>
       </c>
     </row>
-    <row r="912" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A912">
         <v>22</v>
       </c>
@@ -15952,7 +15952,7 @@
         <v>1.7789745857270967E-5</v>
       </c>
     </row>
-    <row r="913" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A913">
         <v>22</v>
       </c>
@@ -15969,7 +15969,7 @@
         <v>1.7873740807789474E-5</v>
       </c>
     </row>
-    <row r="914" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A914">
         <v>22</v>
       </c>
@@ -15986,7 +15986,7 @@
         <v>1.9061136478802383E-5</v>
       </c>
     </row>
-    <row r="915" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A915">
         <v>22</v>
       </c>
@@ -16003,7 +16003,7 @@
         <v>1.7831743332530222E-5</v>
       </c>
     </row>
-    <row r="916" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A916">
         <v>22</v>
       </c>
@@ -16020,7 +16020,7 @@
         <v>1.9098124407089491E-5</v>
       </c>
     </row>
-    <row r="917" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A917">
         <v>22</v>
       </c>
@@ -16037,7 +16037,7 @@
         <v>1.9127769683743083E-5</v>
       </c>
     </row>
-    <row r="918" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A918">
         <v>22</v>
       </c>
@@ -16054,7 +16054,7 @@
         <v>1.9112947045416287E-5</v>
       </c>
     </row>
-    <row r="919" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A919">
         <v>22</v>
       </c>
@@ -16071,7 +16071,7 @@
         <v>1.8035849449024056E-5</v>
       </c>
     </row>
-    <row r="920" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A920">
         <v>23</v>
       </c>
@@ -16088,7 +16088,7 @@
         <v>1.9907589407386211E-5</v>
       </c>
     </row>
-    <row r="921" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A921">
         <v>23</v>
       </c>
@@ -16105,7 +16105,7 @@
         <v>1.662338093344759E-5</v>
       </c>
     </row>
-    <row r="922" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A922">
         <v>23</v>
       </c>
@@ -16122,7 +16122,7 @@
         <v>1.6104982776943614E-5</v>
       </c>
     </row>
-    <row r="923" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A923">
         <v>23</v>
       </c>
@@ -16139,7 +16139,7 @@
         <v>1.9907589407386211E-5</v>
       </c>
     </row>
-    <row r="924" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A924">
         <v>23</v>
       </c>
@@ -16156,7 +16156,7 @@
         <v>1.9408220569195535E-5</v>
       </c>
     </row>
-    <row r="925" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A925">
         <v>23</v>
       </c>
@@ -16173,7 +16173,7 @@
         <v>2.1736054657960395E-5</v>
       </c>
     </row>
-    <row r="926" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A926">
         <v>23</v>
       </c>
@@ -16190,7 +16190,7 @@
         <v>2.1217256847420486E-5</v>
       </c>
     </row>
-    <row r="927" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A927">
         <v>23</v>
       </c>
@@ -16207,7 +16207,7 @@
         <v>1.9131330741958229E-5</v>
       </c>
     </row>
-    <row r="928" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A928">
         <v>23</v>
       </c>
@@ -16224,7 +16224,7 @@
         <v>1.926943290487287E-5</v>
       </c>
     </row>
-    <row r="929" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A929">
         <v>23</v>
       </c>
@@ -16241,7 +16241,7 @@
         <v>1.8044092145390865E-5</v>
       </c>
     </row>
-    <row r="930" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A930">
         <v>23</v>
       </c>
@@ -16258,7 +16258,7 @@
         <v>1.8370165745103306E-5</v>
       </c>
     </row>
-    <row r="931" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A931">
         <v>23</v>
       </c>
@@ -16275,7 +16275,7 @@
         <v>1.786528279459467E-5</v>
       </c>
     </row>
-    <row r="932" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A932">
         <v>23</v>
       </c>
@@ -16292,7 +16292,7 @@
         <v>1.9200381823415549E-5</v>
       </c>
     </row>
-    <row r="933" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A933">
         <v>23</v>
       </c>
@@ -16309,7 +16309,7 @@
         <v>1.811772426984899E-5</v>
       </c>
     </row>
-    <row r="934" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A934">
         <v>23</v>
       </c>
@@ -16326,7 +16326,7 @@
         <v>1.8914000797983409E-5</v>
       </c>
     </row>
-    <row r="935" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A935">
         <v>23</v>
       </c>
@@ -16343,7 +16343,7 @@
         <v>1.8735806815450945E-5</v>
       </c>
     </row>
-    <row r="936" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A936">
         <v>23</v>
       </c>
@@ -16360,7 +16360,7 @@
         <v>1.8824903806717179E-5</v>
       </c>
     </row>
-    <row r="937" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A937">
         <v>23</v>
       </c>
@@ -16377,7 +16377,7 @@
         <v>1.7630693124925892E-5</v>
       </c>
     </row>
-    <row r="938" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A938">
         <v>24</v>
       </c>
@@ -16394,7 +16394,7 @@
         <v>1.3232490459724059E-5</v>
       </c>
     </row>
-    <row r="939" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A939">
         <v>24</v>
       </c>
@@ -16411,7 +16411,7 @@
         <v>1.1124034729908504E-5</v>
       </c>
     </row>
-    <row r="940" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A940">
         <v>24</v>
       </c>
@@ -16428,7 +16428,7 @@
         <v>1.0858467084678984E-5</v>
       </c>
     </row>
-    <row r="941" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A941">
         <v>24</v>
       </c>
@@ -16445,7 +16445,7 @@
         <v>1.3232490459724059E-5</v>
       </c>
     </row>
-    <row r="942" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A942">
         <v>24</v>
       </c>
@@ -16462,7 +16462,7 @@
         <v>1.2093757661339744E-5</v>
       </c>
     </row>
-    <row r="943" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A943">
         <v>24</v>
       </c>
@@ -16479,7 +16479,7 @@
         <v>1.4994303879482103E-5</v>
       </c>
     </row>
-    <row r="944" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A944">
         <v>24</v>
       </c>
@@ -16496,7 +16496,7 @@
         <v>1.4780742729445222E-5</v>
       </c>
     </row>
-    <row r="945" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A945">
         <v>24</v>
       </c>
@@ -16513,7 +16513,7 @@
         <v>1.3329332046171484E-5</v>
       </c>
     </row>
-    <row r="946" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A946">
         <v>24</v>
       </c>
@@ -16530,7 +16530,7 @@
         <v>1.2975184265193212E-5</v>
       </c>
     </row>
-    <row r="947" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A947">
         <v>24</v>
       </c>
@@ -16547,7 +16547,7 @@
         <v>1.1804830371010359E-5</v>
       </c>
     </row>
-    <row r="948" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A948">
         <v>24</v>
       </c>
@@ -16564,7 +16564,7 @@
         <v>1.3005493535619509E-5</v>
       </c>
     </row>
-    <row r="949" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A949">
         <v>24</v>
       </c>
@@ -16581,7 +16581,7 @@
         <v>1.3092065321506255E-5</v>
       </c>
     </row>
-    <row r="950" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A950">
         <v>24</v>
       </c>
@@ -16598,7 +16598,7 @@
         <v>1.3152258155682348E-5</v>
       </c>
     </row>
-    <row r="951" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A951">
         <v>24</v>
       </c>
@@ -16615,7 +16615,7 @@
         <v>1.3048779428562883E-5</v>
       </c>
     </row>
-    <row r="952" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A952">
         <v>24</v>
       </c>
@@ -16632,7 +16632,7 @@
         <v>1.2787617292819601E-5</v>
       </c>
     </row>
-    <row r="953" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A953">
         <v>24</v>
       </c>
@@ -16649,7 +16649,7 @@
         <v>1.2818172040779627E-5</v>
       </c>
     </row>
-    <row r="954" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A954">
         <v>24</v>
       </c>
@@ -16666,7 +16666,7 @@
         <v>1.2802894666799614E-5</v>
       </c>
     </row>
-    <row r="955" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A955">
         <v>24</v>
       </c>
@@ -16683,7 +16683,7 @@
         <v>1.3138966135452934E-5</v>
       </c>
     </row>
-    <row r="956" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A956">
         <v>25</v>
       </c>
@@ -16700,7 +16700,7 @@
         <v>7.331627252259782E-6</v>
       </c>
     </row>
-    <row r="957" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A957">
         <v>25</v>
       </c>
@@ -16717,7 +16717,7 @@
         <v>6.7821023099988734E-6</v>
       </c>
     </row>
-    <row r="958" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A958">
         <v>25</v>
       </c>
@@ -16734,7 +16734,7 @@
         <v>6.5624500915639399E-6</v>
       </c>
     </row>
-    <row r="959" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A959">
         <v>25</v>
       </c>
@@ -16751,7 +16751,7 @@
         <v>7.331627252259782E-6</v>
       </c>
     </row>
-    <row r="960" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A960">
         <v>25</v>
       </c>
@@ -16768,7 +16768,7 @@
         <v>7.0440723398053976E-6</v>
       </c>
     </row>
-    <row r="961" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A961">
         <v>25</v>
       </c>
@@ -16785,7 +16785,7 @@
         <v>8.2006126835225628E-6</v>
       </c>
     </row>
-    <row r="962" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A962">
         <v>25</v>
       </c>
@@ -16802,7 +16802,7 @@
         <v>8.0365417673853285E-6</v>
       </c>
     </row>
-    <row r="963" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A963">
         <v>25</v>
       </c>
@@ -16819,7 +16819,7 @@
         <v>7.178468933922633E-6</v>
       </c>
     </row>
-    <row r="964" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A964">
         <v>25</v>
       </c>
@@ -16836,7 +16836,7 @@
         <v>7.4201152185257587E-6</v>
       </c>
     </row>
-    <row r="965" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A965">
         <v>25</v>
       </c>
@@ -16853,7 +16853,7 @@
         <v>7.050808161048151E-6</v>
       </c>
     </row>
-    <row r="966" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A966">
         <v>25</v>
       </c>
@@ -16870,7 +16870,7 @@
         <v>6.7086743786046882E-6</v>
       </c>
     </row>
-    <row r="967" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A967">
         <v>25</v>
       </c>
@@ -16887,7 +16887,7 @@
         <v>6.9064891668625097E-6</v>
       </c>
     </row>
-    <row r="968" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A968">
         <v>25</v>
       </c>
@@ -16904,7 +16904,7 @@
         <v>7.2992920762241963E-6</v>
       </c>
     </row>
-    <row r="969" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A969">
         <v>25</v>
       </c>
@@ -16921,7 +16921,7 @@
         <v>6.8075817727335985E-6</v>
       </c>
     </row>
-    <row r="970" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A970">
         <v>25</v>
       </c>
@@ -16938,7 +16938,7 @@
         <v>7.0217583194666833E-6</v>
       </c>
     </row>
-    <row r="971" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A971">
         <v>25</v>
       </c>
@@ -16955,7 +16955,7 @@
         <v>7.0915753035576804E-6</v>
       </c>
     </row>
-    <row r="972" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A972">
         <v>25</v>
       </c>
@@ -16972,7 +16972,7 @@
         <v>7.0566668115121819E-6</v>
       </c>
     </row>
-    <row r="973" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A973">
         <v>25</v>
       </c>
@@ -16989,7 +16989,7 @@
         <v>6.9163982298221935E-6</v>
       </c>
     </row>
-    <row r="974" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A974">
         <v>0</v>
       </c>
@@ -17006,7 +17006,7 @@
         <v>0.59696403253170571</v>
       </c>
     </row>
-    <row r="975" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A975">
         <v>0</v>
       </c>
@@ -17023,7 +17023,7 @@
         <v>0.58312852846857066</v>
       </c>
     </row>
-    <row r="976" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A976">
         <v>0</v>
       </c>
@@ -17040,7 +17040,7 @@
         <v>0.57375527295666717</v>
       </c>
     </row>
-    <row r="977" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A977">
         <v>0</v>
       </c>
@@ -17057,7 +17057,7 @@
         <v>0.59696403253170571</v>
       </c>
     </row>
-    <row r="978" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="978" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A978">
         <v>0</v>
       </c>
@@ -17074,7 +17074,7 @@
         <v>0.61740641585571887</v>
       </c>
     </row>
-    <row r="979" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A979">
         <v>0</v>
       </c>
@@ -17091,7 +17091,7 @@
         <v>0.72611058680424712</v>
       </c>
     </row>
-    <row r="980" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="980" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A980">
         <v>0</v>
       </c>
@@ -17108,7 +17108,7 @@
         <v>0.71840270377020177</v>
       </c>
     </row>
-    <row r="981" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A981">
         <v>0</v>
       </c>
@@ -17125,7 +17125,7 @@
         <v>0.61986152111544213</v>
       </c>
     </row>
-    <row r="982" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="982" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A982">
         <v>0</v>
       </c>
@@ -17142,7 +17142,7 @@
         <v>0.65087449256724206</v>
       </c>
     </row>
-    <row r="983" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="983" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A983">
         <v>0</v>
       </c>
@@ -17159,7 +17159,7 @@
         <v>0.60743757109210328</v>
       </c>
     </row>
-    <row r="984" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="984" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A984">
         <v>0</v>
       </c>
@@ -17176,7 +17176,7 @@
         <v>0.61864318615974923</v>
       </c>
     </row>
-    <row r="985" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="985" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A985">
         <v>0</v>
       </c>
@@ -17193,7 +17193,7 @@
         <v>0.62460055257983138</v>
       </c>
     </row>
-    <row r="986" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="986" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A986">
         <v>0</v>
       </c>
@@ -17210,7 +17210,7 @@
         <v>0.63536800684134209</v>
       </c>
     </row>
-    <row r="987" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="987" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A987">
         <v>0</v>
       </c>
@@ -17227,7 +17227,7 @@
         <v>0.62162186936979025</v>
       </c>
     </row>
-    <row r="988" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="988" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A988">
         <v>0</v>
       </c>
@@ -17244,7 +17244,7 @@
         <v>0.65141763733972502</v>
       </c>
     </row>
-    <row r="989" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="989" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A989">
         <v>0</v>
       </c>
@@ -17261,7 +17261,7 @@
         <v>0.65352023725269504</v>
       </c>
     </row>
-    <row r="990" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="990" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A990">
         <v>0</v>
       </c>
@@ -17278,7 +17278,7 @@
         <v>0.65246893729621014</v>
       </c>
     </row>
-    <row r="991" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="991" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A991">
         <v>0</v>
       </c>
@@ -17295,7 +17295,7 @@
         <v>0.62888704569058984</v>
       </c>
     </row>
-    <row r="992" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="992" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A992">
         <v>0</v>
       </c>
@@ -17312,7 +17312,7 @@
         <v>1.4033229859418264E-5</v>
       </c>
     </row>
-    <row r="993" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A993">
         <v>0</v>
       </c>
@@ -17329,7 +17329,7 @@
         <v>1.1436628210190972E-5</v>
       </c>
     </row>
-    <row r="994" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="994" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A994">
         <v>0</v>
       </c>
@@ -17346,7 +17346,7 @@
         <v>1.1097884246893511E-5</v>
       </c>
     </row>
-    <row r="995" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="995" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A995">
         <v>0</v>
       </c>
@@ -17363,7 +17363,7 @@
         <v>1.4033229859418264E-5</v>
       </c>
     </row>
-    <row r="996" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="996" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A996">
         <v>0</v>
       </c>
@@ -17380,7 +17380,7 @@
         <v>1.2589408947428066E-5</v>
       </c>
     </row>
-    <row r="997" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="997" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A997">
         <v>0</v>
       </c>
@@ -17397,7 +17397,7 @@
         <v>1.5465671108281003E-5</v>
       </c>
     </row>
-    <row r="998" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="998" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A998">
         <v>0</v>
       </c>
@@ -17414,7 +17414,7 @@
         <v>1.5274190964034563E-5</v>
       </c>
     </row>
-    <row r="999" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="999" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A999">
         <v>0</v>
       </c>
@@ -17431,7 +17431,7 @@
         <v>1.3313962151119439E-5</v>
       </c>
     </row>
-    <row r="1000" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1000" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1000">
         <v>0</v>
       </c>
@@ -17448,7 +17448,7 @@
         <v>1.2727633628922704E-5</v>
       </c>
     </row>
-    <row r="1001" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1001" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1001">
         <v>0</v>
       </c>
@@ -17465,7 +17465,7 @@
         <v>1.2104376673197588E-5</v>
       </c>
     </row>
-    <row r="1002" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1002" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1002">
         <v>0</v>
       </c>
@@ -17482,7 +17482,7 @@
         <v>1.255675342783081E-5</v>
       </c>
     </row>
-    <row r="1003" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1003" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1003">
         <v>0</v>
       </c>
@@ -17499,7 +17499,7 @@
         <v>1.2580814533379711E-5</v>
       </c>
     </row>
-    <row r="1004" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1004" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1004">
         <v>0</v>
       </c>
@@ -17516,7 +17516,7 @@
         <v>1.3020797890021075E-5</v>
       </c>
     </row>
-    <row r="1005" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1005" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1005">
         <v>0</v>
       </c>
@@ -17533,7 +17533,7 @@
         <v>1.2568783980605262E-5</v>
       </c>
     </row>
-    <row r="1006" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1006" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1006">
         <v>0</v>
       </c>
@@ -17550,7 +17550,7 @@
         <v>1.3364921495825534E-5</v>
       </c>
     </row>
-    <row r="1007" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1007" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1007">
         <v>0</v>
       </c>
@@ -17567,7 +17567,7 @@
         <v>1.3373413650725147E-5</v>
       </c>
     </row>
-    <row r="1008" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1008" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1008">
         <v>0</v>
       </c>
@@ -17584,7 +17584,7 @@
         <v>1.3369167573275341E-5</v>
       </c>
     </row>
-    <row r="1009" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1009" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1009">
         <v>0</v>
       </c>
